--- a/docs/excel/画面設計.xlsx
+++ b/docs/excel/画面設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952"/>
   </bookViews>
   <sheets>
     <sheet name="【画面一覧】" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="12.画像取得" sheetId="16" r:id="rId14"/>
     <sheet name="13.画像一覧" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -7088,6 +7088,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7142,8 +7145,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7151,16 +7190,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7193,6 +7223,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7205,9 +7241,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7217,35 +7250,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7279,18 +7291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8236,9 +8236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8252,14 +8252,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1">
       <c r="A2" s="7" t="s">
@@ -8295,7 +8295,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8325,7 +8325,7 @@
         <f t="shared" ref="A4:A24" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -8351,7 +8351,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1" t="s">
         <v>164</v>
       </c>
@@ -8373,7 +8373,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1" t="s">
         <v>165</v>
       </c>
@@ -8395,7 +8395,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1" t="s">
         <v>166</v>
       </c>
@@ -8417,7 +8417,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="1" t="s">
         <v>167</v>
       </c>
@@ -8443,7 +8443,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="1" t="s">
         <v>436</v>
       </c>
@@ -8465,7 +8465,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8495,7 +8495,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -8519,7 +8519,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
@@ -8545,7 +8545,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -8571,7 +8571,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -8595,7 +8595,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -8621,7 +8621,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
@@ -8647,7 +8647,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -8675,7 +8675,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
@@ -8701,7 +8701,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -8725,7 +8725,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="65" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -8749,7 +8749,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
@@ -8775,7 +8775,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
@@ -8801,7 +8801,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
@@ -8897,10 +8897,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -9254,9 +9254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9285,13 +9285,13 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="43" t="s">
         <v>369</v>
       </c>
@@ -9331,37 +9331,37 @@
         <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="104" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="96"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="102" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="48" t="s">
         <v>517</v>
       </c>
@@ -9383,7 +9383,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="46" t="s">
         <v>516</v>
       </c>
@@ -9411,37 +9411,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="91" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="101" t="s">
         <v>514</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="84"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17" ht="27">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="19" t="s">
         <v>243</v>
       </c>
@@ -9465,13 +9465,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="103" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="18" t="s">
         <v>358</v>
       </c>
@@ -9509,13 +9509,13 @@
         <f t="shared" ref="A9:A76" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="103" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="18" t="s">
         <v>362</v>
       </c>
@@ -9553,15 +9553,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="103" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="103"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="18" t="s">
         <v>367</v>
       </c>
@@ -9591,13 +9591,13 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="F11" s="103"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="18" t="s">
         <v>367</v>
       </c>
@@ -9627,13 +9627,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="18" t="s">
         <v>358</v>
       </c>
@@ -9671,13 +9671,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="103" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17" t="s">
         <v>358</v>
       </c>
@@ -9705,13 +9705,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="19" t="s">
         <v>358</v>
       </c>
@@ -9739,13 +9739,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="103" t="s">
+      <c r="B15" s="107"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="17" t="s">
         <v>367</v>
       </c>
@@ -9785,13 +9785,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="103" t="s">
+      <c r="B16" s="107"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="17" t="s">
         <v>372</v>
       </c>
@@ -9817,15 +9817,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="128" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="103"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="17" t="s">
         <v>374</v>
       </c>
@@ -9863,13 +9863,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="103" t="s">
+      <c r="B18" s="107"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="103"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="17" t="s">
         <v>358</v>
       </c>
@@ -9903,13 +9903,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="103" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="103"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="17" t="s">
         <v>367</v>
       </c>
@@ -9943,13 +9943,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="103" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="103"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="17" t="s">
         <v>367</v>
       </c>
@@ -9987,13 +9987,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="103" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="103"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="17" t="s">
         <v>358</v>
       </c>
@@ -10031,10 +10031,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="103" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="83" t="s">
         <v>327</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -10061,10 +10061,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="103"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="26" t="s">
         <v>328</v>
       </c>
@@ -10089,13 +10089,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="103" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="103"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="17" t="s">
         <v>367</v>
       </c>
@@ -10117,10 +10117,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="103" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="83" t="s">
         <v>334</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -10149,10 +10149,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="103"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="26" t="s">
         <v>596</v>
       </c>
@@ -10179,10 +10179,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="103"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="26" t="s">
         <v>597</v>
       </c>
@@ -10209,10 +10209,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="103"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="26" t="s">
         <v>598</v>
       </c>
@@ -10239,15 +10239,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F29" s="103"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="17" t="s">
         <v>358</v>
       </c>
@@ -10269,15 +10269,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="103" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="103"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="17" t="s">
         <v>386</v>
       </c>
@@ -10297,13 +10297,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103" t="s">
+      <c r="B31" s="107"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="F31" s="103"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="19" t="s">
         <v>373</v>
       </c>
@@ -10323,13 +10323,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103" t="s">
+      <c r="B32" s="107"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="19" t="s">
         <v>373</v>
       </c>
@@ -10349,13 +10349,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83" t="s">
         <v>351</v>
       </c>
-      <c r="F33" s="103"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="19" t="s">
         <v>373</v>
       </c>
@@ -10375,13 +10375,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="107" t="s">
+      <c r="B34" s="107"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="F34" s="131"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="19" t="s">
         <v>373</v>
       </c>
@@ -10403,10 +10403,10 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="26" t="s">
         <v>345</v>
       </c>
@@ -10433,13 +10433,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103" t="s">
+      <c r="B36" s="107"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="103"/>
+      <c r="F36" s="83"/>
       <c r="G36" s="19" t="s">
         <v>373</v>
       </c>
@@ -10459,13 +10459,13 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="107" t="s">
+      <c r="B37" s="107"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="F37" s="131"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="19" t="s">
         <v>373</v>
       </c>
@@ -10487,10 +10487,10 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="26" t="s">
         <v>345</v>
       </c>
@@ -10515,12 +10515,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="103" t="s">
+      <c r="B39" s="107"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="83" t="s">
         <v>338</v>
       </c>
       <c r="F39" s="26" t="s">
@@ -10545,10 +10545,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="26" t="s">
         <v>354</v>
       </c>
@@ -10575,10 +10575,10 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
       <c r="F41" s="26" t="s">
         <v>355</v>
       </c>
@@ -10605,10 +10605,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103" t="s">
+      <c r="B42" s="107"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83" t="s">
         <v>349</v>
       </c>
       <c r="F42" s="26" t="s">
@@ -10633,10 +10633,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="26" t="s">
         <v>384</v>
       </c>
@@ -10663,10 +10663,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103" t="s">
+      <c r="B44" s="107"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83" t="s">
         <v>340</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -10691,10 +10691,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="26" t="s">
         <v>384</v>
       </c>
@@ -10721,10 +10721,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103" t="s">
+      <c r="B46" s="107"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83" t="s">
         <v>341</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -10751,10 +10751,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="26" t="s">
         <v>385</v>
       </c>
@@ -10781,10 +10781,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
       <c r="F48" s="26" t="s">
         <v>384</v>
       </c>
@@ -10811,10 +10811,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="26" t="s">
         <v>393</v>
       </c>
@@ -10841,10 +10841,10 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="26" t="s">
         <v>394</v>
       </c>
@@ -10871,10 +10871,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="26" t="s">
         <v>395</v>
       </c>
@@ -10899,10 +10899,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="97"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
       <c r="F52" s="26" t="s">
         <v>396</v>
       </c>
@@ -10927,10 +10927,10 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103" t="s">
+      <c r="B53" s="107"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83" t="s">
         <v>343</v>
       </c>
       <c r="F53" s="26" t="s">
@@ -10955,10 +10955,10 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
       <c r="F54" s="26" t="s">
         <v>384</v>
       </c>
@@ -10983,12 +10983,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="103" t="s">
+      <c r="B55" s="107"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="83" t="s">
         <v>420</v>
       </c>
       <c r="F55" s="26" t="s">
@@ -11017,10 +11017,10 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="26" t="s">
         <v>394</v>
       </c>
@@ -11047,15 +11047,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="103" t="s">
+      <c r="B57" s="107"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="103"/>
+      <c r="F57" s="83"/>
       <c r="G57" s="17" t="s">
         <v>389</v>
       </c>
@@ -11079,10 +11079,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103" t="s">
+      <c r="B58" s="107"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83" t="s">
         <v>409</v>
       </c>
       <c r="F58" s="26" t="s">
@@ -11111,10 +11111,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="26" t="s">
         <v>411</v>
       </c>
@@ -11141,10 +11141,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103" t="s">
+      <c r="B60" s="107"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83" t="s">
         <v>414</v>
       </c>
       <c r="F60" s="26" t="s">
@@ -11173,10 +11173,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
       <c r="F61" s="26" t="s">
         <v>411</v>
       </c>
@@ -11200,9 +11200,9 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="51"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="103"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="26" t="s">
         <v>470</v>
       </c>
@@ -11228,12 +11228,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="103" t="s">
+      <c r="B63" s="107"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="83" t="s">
         <v>422</v>
       </c>
-      <c r="E63" s="103" t="s">
+      <c r="E63" s="83" t="s">
         <v>423</v>
       </c>
       <c r="F63" s="26" t="s">
@@ -11262,10 +11262,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
       <c r="F64" s="26" t="s">
         <v>427</v>
       </c>
@@ -11298,10 +11298,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
       <c r="F65" s="26" t="s">
         <v>428</v>
       </c>
@@ -11334,10 +11334,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
       <c r="F66" s="26" t="s">
         <v>429</v>
       </c>
@@ -11364,10 +11364,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
       <c r="F67" s="26" t="s">
         <v>464</v>
       </c>
@@ -11394,10 +11394,10 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
       <c r="F68" s="26" t="s">
         <v>430</v>
       </c>
@@ -11424,10 +11424,10 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
       <c r="F69" s="26" t="s">
         <v>465</v>
       </c>
@@ -11454,10 +11454,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="97"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
       <c r="F70" s="26" t="s">
         <v>432</v>
       </c>
@@ -11488,10 +11488,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103" t="s">
+      <c r="B71" s="107"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83" t="s">
         <v>434</v>
       </c>
       <c r="F71" s="26" t="s">
@@ -11524,10 +11524,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
       <c r="F72" s="26" t="s">
         <v>435</v>
       </c>
@@ -11558,34 +11558,34 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="104" t="s">
+      <c r="B73" s="107"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="105"/>
-      <c r="M73" s="105"/>
-      <c r="N73" s="105"/>
-      <c r="O73" s="105"/>
-      <c r="P73" s="105"/>
-      <c r="Q73" s="106"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
+      <c r="O73" s="116"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="117"/>
     </row>
     <row r="74" spans="1:17" ht="40.5">
       <c r="A74" s="51">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="97"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="110" t="s">
+      <c r="B74" s="107"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="84" t="s">
         <v>485</v>
       </c>
       <c r="F74" s="41"/>
@@ -11612,10 +11612,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="97"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="101"/>
-      <c r="E75" s="111"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="113"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="29" t="s">
         <v>487</v>
       </c>
@@ -11640,10 +11640,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="103" t="s">
+      <c r="B76" s="107"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F76" s="26" t="s">
@@ -11670,10 +11670,10 @@
         <f t="shared" ref="A77:A103" si="2">ROW()-2</f>
         <v>75</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="103"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="83"/>
       <c r="F77" s="26" t="s">
         <v>354</v>
       </c>
@@ -11702,10 +11702,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="103"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="83"/>
       <c r="F78" s="26" t="s">
         <v>355</v>
       </c>
@@ -11734,10 +11734,10 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="103" t="s">
+      <c r="B79" s="107"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="113"/>
+      <c r="E79" s="83" t="s">
         <v>316</v>
       </c>
       <c r="F79" s="26" t="s">
@@ -11766,10 +11766,10 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="103"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="83"/>
       <c r="F80" s="26" t="s">
         <v>458</v>
       </c>
@@ -11796,10 +11796,10 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="97"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="103"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="83"/>
       <c r="F81" s="26" t="s">
         <v>415</v>
       </c>
@@ -11826,10 +11826,10 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="107" t="s">
+      <c r="B82" s="107"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="90" t="s">
         <v>456</v>
       </c>
       <c r="F82" s="63"/>
@@ -11854,10 +11854,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="103"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="83"/>
       <c r="F83" s="26" t="s">
         <v>416</v>
       </c>
@@ -11884,10 +11884,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="97"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="103"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="83"/>
       <c r="F84" s="26" t="s">
         <v>419</v>
       </c>
@@ -11916,10 +11916,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="116" t="s">
+      <c r="B85" s="107"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="92" t="s">
         <v>467</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -11950,10 +11950,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="102"/>
-      <c r="E86" s="116"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="26" t="s">
         <v>381</v>
       </c>
@@ -11976,34 +11976,34 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="104" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="115" t="s">
         <v>510</v>
       </c>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="105"/>
-      <c r="N87" s="105"/>
-      <c r="O87" s="105"/>
-      <c r="P87" s="105"/>
-      <c r="Q87" s="106"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116"/>
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+      <c r="L87" s="116"/>
+      <c r="M87" s="116"/>
+      <c r="N87" s="116"/>
+      <c r="O87" s="116"/>
+      <c r="P87" s="116"/>
+      <c r="Q87" s="117"/>
     </row>
     <row r="88" spans="1:17" ht="27">
       <c r="A88" s="51">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="97"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="103" t="s">
+      <c r="B88" s="107"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F88" s="26" t="s">
@@ -12030,10 +12030,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="102"/>
-      <c r="E89" s="103"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="83"/>
       <c r="F89" s="26" t="s">
         <v>354</v>
       </c>
@@ -12062,34 +12062,34 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="97"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="104" t="s">
+      <c r="B90" s="107"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="115" t="s">
         <v>511</v>
       </c>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="105"/>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="105"/>
-      <c r="Q90" s="106"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="116"/>
+      <c r="H90" s="116"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="116"/>
+      <c r="M90" s="116"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="116"/>
+      <c r="P90" s="116"/>
+      <c r="Q90" s="117"/>
     </row>
     <row r="91" spans="1:17" ht="27">
       <c r="A91" s="51">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="103" t="s">
+      <c r="B91" s="107"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -12116,10 +12116,10 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="103"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="83"/>
       <c r="F92" s="26" t="s">
         <v>354</v>
       </c>
@@ -12148,32 +12148,32 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="104" t="s">
+      <c r="B93" s="107"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="105"/>
-      <c r="O93" s="105"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="106"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
+      <c r="H93" s="116"/>
+      <c r="I93" s="116"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="116"/>
+      <c r="L93" s="116"/>
+      <c r="M93" s="116"/>
+      <c r="N93" s="116"/>
+      <c r="O93" s="116"/>
+      <c r="P93" s="116"/>
+      <c r="Q93" s="117"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="51">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="99"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="111"/>
       <c r="D94" s="42"/>
       <c r="E94" s="26" t="s">
         <v>352</v>
@@ -12202,32 +12202,32 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="104" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="105"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="105"/>
-      <c r="K95" s="105"/>
-      <c r="L95" s="105"/>
-      <c r="M95" s="105"/>
-      <c r="N95" s="105"/>
-      <c r="O95" s="105"/>
-      <c r="P95" s="105"/>
-      <c r="Q95" s="106"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="116"/>
+      <c r="H95" s="116"/>
+      <c r="I95" s="116"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="116"/>
+      <c r="M95" s="116"/>
+      <c r="N95" s="116"/>
+      <c r="O95" s="116"/>
+      <c r="P95" s="116"/>
+      <c r="Q95" s="117"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="51">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="99"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="42"/>
       <c r="E96" s="26" t="s">
         <v>337</v>
@@ -12258,34 +12258,34 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="104" t="s">
+      <c r="B97" s="107"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
-      <c r="O97" s="105"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="106"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
+      <c r="H97" s="116"/>
+      <c r="I97" s="116"/>
+      <c r="J97" s="116"/>
+      <c r="K97" s="116"/>
+      <c r="L97" s="116"/>
+      <c r="M97" s="116"/>
+      <c r="N97" s="116"/>
+      <c r="O97" s="116"/>
+      <c r="P97" s="116"/>
+      <c r="Q97" s="117"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="51">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="112"/>
-      <c r="E98" s="103" t="s">
+      <c r="B98" s="107"/>
+      <c r="C98" s="111"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="83" t="s">
         <v>423</v>
       </c>
       <c r="F98" s="26" t="s">
@@ -12312,10 +12312,10 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="103"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="83"/>
       <c r="F99" s="28" t="s">
         <v>479</v>
       </c>
@@ -12340,9 +12340,9 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="97"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="113"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="111"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="26" t="s">
         <v>480</v>
       </c>
@@ -12370,37 +12370,37 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="104" t="s">
+      <c r="B101" s="107"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="115" t="s">
         <v>513</v>
       </c>
-      <c r="E101" s="105"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="105"/>
-      <c r="L101" s="105"/>
-      <c r="M101" s="105"/>
-      <c r="N101" s="105"/>
-      <c r="O101" s="105"/>
-      <c r="P101" s="105"/>
-      <c r="Q101" s="106"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="116"/>
+      <c r="K101" s="116"/>
+      <c r="L101" s="116"/>
+      <c r="M101" s="116"/>
+      <c r="N101" s="116"/>
+      <c r="O101" s="116"/>
+      <c r="P101" s="116"/>
+      <c r="Q101" s="117"/>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="97"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="103" t="s">
+      <c r="B102" s="107"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="103"/>
+      <c r="F102" s="83"/>
       <c r="G102" s="19" t="s">
         <v>358</v>
       </c>
@@ -12422,13 +12422,13 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B103" s="97"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="103" t="s">
+      <c r="B103" s="107"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="F103" s="103"/>
+      <c r="F103" s="83"/>
       <c r="G103" s="19" t="s">
         <v>358</v>
       </c>
@@ -12450,13 +12450,13 @@
         <f t="shared" ref="A104:A131" si="3">ROW()-2</f>
         <v>102</v>
       </c>
-      <c r="B104" s="97"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="103" t="s">
+      <c r="B104" s="107"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="F104" s="103"/>
+      <c r="F104" s="83"/>
       <c r="G104" s="19" t="s">
         <v>372</v>
       </c>
@@ -12476,13 +12476,13 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="115"/>
-      <c r="E105" s="103" t="s">
+      <c r="B105" s="107"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="F105" s="103"/>
+      <c r="F105" s="83"/>
       <c r="G105" s="19" t="s">
         <v>372</v>
       </c>
@@ -12502,13 +12502,13 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="115"/>
-      <c r="E106" s="103" t="s">
+      <c r="B106" s="107"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F106" s="103"/>
+      <c r="F106" s="83"/>
       <c r="G106" s="19" t="s">
         <v>372</v>
       </c>
@@ -12528,13 +12528,13 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="97"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="115"/>
-      <c r="E107" s="103" t="s">
+      <c r="B107" s="107"/>
+      <c r="C107" s="111"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="F107" s="103"/>
+      <c r="F107" s="83"/>
       <c r="G107" s="19" t="s">
         <v>372</v>
       </c>
@@ -12554,13 +12554,13 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="97"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="107" t="s">
+      <c r="B108" s="107"/>
+      <c r="C108" s="111"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="F108" s="109"/>
+      <c r="F108" s="91"/>
       <c r="G108" s="19" t="s">
         <v>358</v>
       </c>
@@ -12582,10 +12582,10 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="97"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="103" t="s">
+      <c r="B109" s="107"/>
+      <c r="C109" s="111"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="83" t="s">
         <v>406</v>
       </c>
       <c r="F109" s="26" t="s">
@@ -12614,10 +12614,10 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="97"/>
-      <c r="C110" s="100"/>
-      <c r="D110" s="115"/>
-      <c r="E110" s="103"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="112"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="83"/>
       <c r="F110" s="26" t="s">
         <v>483</v>
       </c>
@@ -12642,37 +12642,37 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="97"/>
-      <c r="C111" s="83" t="s">
+      <c r="B111" s="107"/>
+      <c r="C111" s="96" t="s">
         <v>525</v>
       </c>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
-      <c r="M111" s="83"/>
-      <c r="N111" s="83"/>
-      <c r="O111" s="83"/>
-      <c r="P111" s="83"/>
-      <c r="Q111" s="84"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="96"/>
+      <c r="L111" s="96"/>
+      <c r="M111" s="96"/>
+      <c r="N111" s="96"/>
+      <c r="O111" s="96"/>
+      <c r="P111" s="96"/>
+      <c r="Q111" s="97"/>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="51">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="97"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="82" t="s">
+      <c r="B112" s="107"/>
+      <c r="C112" s="119"/>
+      <c r="D112" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
       <c r="G112" s="20" t="s">
         <v>518</v>
       </c>
@@ -12694,13 +12694,13 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="87" t="s">
+      <c r="B113" s="107"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E113" s="88"/>
-      <c r="F113" s="81"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="82"/>
       <c r="G113" s="20" t="s">
         <v>533</v>
       </c>
@@ -12720,37 +12720,37 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="97"/>
-      <c r="C114" s="83" t="s">
+      <c r="B114" s="107"/>
+      <c r="C114" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
-      <c r="N114" s="83"/>
-      <c r="O114" s="83"/>
-      <c r="P114" s="83"/>
-      <c r="Q114" s="84"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
+      <c r="K114" s="96"/>
+      <c r="L114" s="96"/>
+      <c r="M114" s="96"/>
+      <c r="N114" s="96"/>
+      <c r="O114" s="96"/>
+      <c r="P114" s="96"/>
+      <c r="Q114" s="97"/>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="51">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="97"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="82" t="s">
+      <c r="B115" s="107"/>
+      <c r="C115" s="119"/>
+      <c r="D115" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E115" s="82"/>
-      <c r="F115" s="82"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
       <c r="G115" s="20" t="s">
         <v>518</v>
       </c>
@@ -12772,13 +12772,13 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="97"/>
-      <c r="C116" s="86"/>
-      <c r="D116" s="87" t="s">
+      <c r="B116" s="107"/>
+      <c r="C116" s="120"/>
+      <c r="D116" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E116" s="88"/>
-      <c r="F116" s="81"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="82"/>
       <c r="G116" s="20"/>
       <c r="H116" s="38"/>
       <c r="I116" s="1"/>
@@ -12796,37 +12796,37 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="97"/>
-      <c r="C117" s="83" t="s">
+      <c r="B117" s="107"/>
+      <c r="C117" s="96" t="s">
         <v>526</v>
       </c>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="84"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
+      <c r="K117" s="96"/>
+      <c r="L117" s="96"/>
+      <c r="M117" s="96"/>
+      <c r="N117" s="96"/>
+      <c r="O117" s="96"/>
+      <c r="P117" s="96"/>
+      <c r="Q117" s="97"/>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="51">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="97"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="82" t="s">
+      <c r="B118" s="107"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
       <c r="G118" s="20" t="s">
         <v>531</v>
       </c>
@@ -12848,13 +12848,13 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="97"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="87" t="s">
+      <c r="B119" s="107"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E119" s="88"/>
-      <c r="F119" s="81"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="82"/>
       <c r="G119" s="20" t="s">
         <v>533</v>
       </c>
@@ -12874,37 +12874,37 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="97"/>
-      <c r="C120" s="83" t="s">
+      <c r="B120" s="107"/>
+      <c r="C120" s="96" t="s">
         <v>527</v>
       </c>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-      <c r="J120" s="83"/>
-      <c r="K120" s="83"/>
-      <c r="L120" s="83"/>
-      <c r="M120" s="83"/>
-      <c r="N120" s="83"/>
-      <c r="O120" s="83"/>
-      <c r="P120" s="83"/>
-      <c r="Q120" s="84"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+      <c r="J120" s="96"/>
+      <c r="K120" s="96"/>
+      <c r="L120" s="96"/>
+      <c r="M120" s="96"/>
+      <c r="N120" s="96"/>
+      <c r="O120" s="96"/>
+      <c r="P120" s="96"/>
+      <c r="Q120" s="97"/>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="51">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="97"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="82" t="s">
+      <c r="B121" s="107"/>
+      <c r="C121" s="119"/>
+      <c r="D121" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
       <c r="G121" s="20" t="s">
         <v>518</v>
       </c>
@@ -12926,13 +12926,13 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="97"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="87" t="s">
+      <c r="B122" s="107"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E122" s="88"/>
-      <c r="F122" s="81"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="82"/>
       <c r="G122" s="20" t="s">
         <v>533</v>
       </c>
@@ -12952,37 +12952,37 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="97"/>
-      <c r="C123" s="83" t="s">
+      <c r="B123" s="107"/>
+      <c r="C123" s="96" t="s">
         <v>528</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
-      <c r="K123" s="83"/>
-      <c r="L123" s="83"/>
-      <c r="M123" s="83"/>
-      <c r="N123" s="83"/>
-      <c r="O123" s="83"/>
-      <c r="P123" s="83"/>
-      <c r="Q123" s="84"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="96"/>
+      <c r="L123" s="96"/>
+      <c r="M123" s="96"/>
+      <c r="N123" s="96"/>
+      <c r="O123" s="96"/>
+      <c r="P123" s="96"/>
+      <c r="Q123" s="97"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="51">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="97"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="82" t="s">
+      <c r="B124" s="107"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
       <c r="G124" s="20" t="s">
         <v>518</v>
       </c>
@@ -13004,13 +13004,13 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="87" t="s">
+      <c r="B125" s="107"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E125" s="88"/>
-      <c r="F125" s="81"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="82"/>
       <c r="G125" s="20" t="s">
         <v>533</v>
       </c>
@@ -13030,37 +13030,37 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="83" t="s">
+      <c r="B126" s="107"/>
+      <c r="C126" s="96" t="s">
         <v>529</v>
       </c>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
-      <c r="K126" s="83"/>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83"/>
-      <c r="N126" s="83"/>
-      <c r="O126" s="83"/>
-      <c r="P126" s="83"/>
-      <c r="Q126" s="84"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="96"/>
+      <c r="Q126" s="97"/>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="51">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="97"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="82" t="s">
+      <c r="B127" s="107"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
       <c r="G127" s="20" t="s">
         <v>518</v>
       </c>
@@ -13082,13 +13082,13 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="97"/>
-      <c r="C128" s="86"/>
-      <c r="D128" s="87" t="s">
+      <c r="B128" s="107"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E128" s="88"/>
-      <c r="F128" s="81"/>
+      <c r="E128" s="110"/>
+      <c r="F128" s="82"/>
       <c r="G128" s="20" t="s">
         <v>533</v>
       </c>
@@ -13108,37 +13108,37 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="97"/>
-      <c r="C129" s="83" t="s">
+      <c r="B129" s="107"/>
+      <c r="C129" s="96" t="s">
         <v>530</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
-      <c r="K129" s="83"/>
-      <c r="L129" s="83"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="83"/>
-      <c r="O129" s="83"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="84"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="96"/>
+      <c r="F129" s="96"/>
+      <c r="G129" s="96"/>
+      <c r="H129" s="96"/>
+      <c r="I129" s="96"/>
+      <c r="J129" s="96"/>
+      <c r="K129" s="96"/>
+      <c r="L129" s="96"/>
+      <c r="M129" s="96"/>
+      <c r="N129" s="96"/>
+      <c r="O129" s="96"/>
+      <c r="P129" s="96"/>
+      <c r="Q129" s="97"/>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="51">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="97"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="82" t="s">
+      <c r="B130" s="107"/>
+      <c r="C130" s="119"/>
+      <c r="D130" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
       <c r="G130" s="20" t="s">
         <v>518</v>
       </c>
@@ -13160,13 +13160,13 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="98"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="87" t="s">
+      <c r="B131" s="108"/>
+      <c r="C131" s="120"/>
+      <c r="D131" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E131" s="88"/>
-      <c r="F131" s="81"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="82"/>
       <c r="G131" s="20" t="s">
         <v>533</v>
       </c>
@@ -13183,24 +13183,70 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D102:D110"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="C129:Q129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="C120:Q120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="C123:Q123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="C126:Q126"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="C114:Q114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="C117:Q117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:B131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C7:C110"/>
+    <mergeCell ref="D74:D86"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C111:Q111"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="D73:Q73"/>
+    <mergeCell ref="D87:Q87"/>
+    <mergeCell ref="D90:Q90"/>
+    <mergeCell ref="D93:Q93"/>
+    <mergeCell ref="D95:Q95"/>
+    <mergeCell ref="D97:Q97"/>
+    <mergeCell ref="D101:Q101"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D17:D28"/>
     <mergeCell ref="E46:E52"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="D10:D11"/>
@@ -13225,70 +13271,24 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D17:D28"/>
-    <mergeCell ref="C117:Q117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:B131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="C7:C110"/>
-    <mergeCell ref="D74:D86"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C111:Q111"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="D73:Q73"/>
-    <mergeCell ref="D87:Q87"/>
-    <mergeCell ref="D90:Q90"/>
-    <mergeCell ref="D93:Q93"/>
-    <mergeCell ref="D95:Q95"/>
-    <mergeCell ref="D97:Q97"/>
-    <mergeCell ref="D101:Q101"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="C129:Q129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="C120:Q120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="C123:Q123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="C126:Q126"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="C114:Q114"/>
-    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D102:D110"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E86"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H63:H66 H82:H86 H68:H72 H96 H112:H113 H74:H75 H1:H2 H132:H1048576 H7:H59">
@@ -13457,13 +13457,13 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="90"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="43" t="s">
         <v>369</v>
       </c>
@@ -13485,31 +13485,31 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="104" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="50">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="102" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="48" t="s">
         <v>537</v>
       </c>
@@ -13527,7 +13527,7 @@
         <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="46" t="s">
         <v>152</v>
       </c>
@@ -13551,13 +13551,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="102" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="48" t="s">
         <v>517</v>
       </c>
@@ -13575,13 +13575,13 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="102" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="120"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="49" t="s">
         <v>518</v>
       </c>
@@ -13599,31 +13599,31 @@
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="117" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="121" t="s">
         <v>514</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="119"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="27">
       <c r="A9" s="50">
         <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="107" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="90" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="19" t="s">
         <v>243</v>
       </c>
@@ -13641,13 +13641,13 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="103" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="18" t="s">
         <v>134</v>
       </c>
@@ -13665,13 +13665,13 @@
         <f t="shared" ref="A11:A82" si="1">ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="103" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="18" t="s">
         <v>103</v>
       </c>
@@ -13689,15 +13689,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="103" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="83" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="103"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="18" t="s">
         <v>161</v>
       </c>
@@ -13713,13 +13713,13 @@
         <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="F13" s="103"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="18" t="s">
         <v>161</v>
       </c>
@@ -13735,13 +13735,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="83" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="18" t="s">
         <v>134</v>
       </c>
@@ -13759,13 +13759,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="103" t="s">
+      <c r="B15" s="107"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="19" t="s">
         <v>134</v>
       </c>
@@ -13783,13 +13783,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="103" t="s">
+      <c r="B16" s="107"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="19" t="s">
         <v>134</v>
       </c>
@@ -13807,13 +13807,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="103" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="83" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="19" t="s">
         <v>161</v>
       </c>
@@ -13833,13 +13833,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="103" t="s">
+      <c r="B18" s="107"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="19" t="s">
         <v>243</v>
       </c>
@@ -13855,15 +13855,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="103" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="103"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="19" t="s">
         <v>374</v>
       </c>
@@ -13881,13 +13881,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="103"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="19" t="s">
         <v>134</v>
       </c>
@@ -13907,13 +13907,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="F21" s="103"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="19" t="s">
         <v>161</v>
       </c>
@@ -13931,13 +13931,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="103"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="19" t="s">
         <v>161</v>
       </c>
@@ -13955,13 +13955,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="103"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="19" t="s">
         <v>134</v>
       </c>
@@ -13979,10 +13979,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83" t="s">
         <v>327</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -14003,10 +14003,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="26" t="s">
         <v>328</v>
       </c>
@@ -14025,13 +14025,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="103"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="19" t="s">
         <v>161</v>
       </c>
@@ -14047,12 +14047,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="103" t="s">
+      <c r="B27" s="107"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="83" t="s">
         <v>379</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -14075,10 +14075,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="26" t="s">
         <v>328</v>
       </c>
@@ -14099,10 +14099,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83" t="s">
         <v>380</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -14125,10 +14125,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="26" t="s">
         <v>328</v>
       </c>
@@ -14149,15 +14149,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="103"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="19" t="s">
         <v>134</v>
       </c>
@@ -14173,15 +14173,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="103" t="s">
+      <c r="B32" s="107"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="19" t="s">
         <v>373</v>
       </c>
@@ -14195,13 +14195,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="F33" s="103"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="19" t="s">
         <v>373</v>
       </c>
@@ -14215,13 +14215,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103" t="s">
+      <c r="B34" s="107"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="103"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="19" t="s">
         <v>373</v>
       </c>
@@ -14235,13 +14235,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103" t="s">
+      <c r="B35" s="107"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="103"/>
+      <c r="F35" s="83"/>
       <c r="G35" s="19" t="s">
         <v>373</v>
       </c>
@@ -14255,10 +14255,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103" t="s">
+      <c r="B36" s="107"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="27"/>
@@ -14277,10 +14277,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="26" t="s">
         <v>345</v>
       </c>
@@ -14301,13 +14301,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103" t="s">
+      <c r="B38" s="107"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="F38" s="103"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="19" t="s">
         <v>373</v>
       </c>
@@ -14321,10 +14321,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103" t="s">
+      <c r="B39" s="107"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83" t="s">
         <v>344</v>
       </c>
       <c r="F39" s="27"/>
@@ -14343,10 +14343,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="26" t="s">
         <v>345</v>
       </c>
@@ -14365,12 +14365,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="103" t="s">
+      <c r="B41" s="107"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="83" t="s">
         <v>352</v>
       </c>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="83" t="s">
         <v>229</v>
       </c>
       <c r="F41" s="26" t="s">
@@ -14389,10 +14389,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="26" t="s">
         <v>354</v>
       </c>
@@ -14413,10 +14413,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
       <c r="F43" s="26" t="s">
         <v>19</v>
       </c>
@@ -14437,10 +14437,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103" t="s">
+      <c r="B44" s="107"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83" t="s">
         <v>339</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -14459,10 +14459,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
       <c r="F45" s="26" t="s">
         <v>384</v>
       </c>
@@ -14483,10 +14483,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103" t="s">
+      <c r="B46" s="107"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83" t="s">
         <v>340</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -14505,10 +14505,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
       <c r="F47" s="26" t="s">
         <v>384</v>
       </c>
@@ -14529,10 +14529,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83" t="s">
         <v>341</v>
       </c>
       <c r="F48" s="26" t="s">
@@ -14553,10 +14553,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="26" t="s">
         <v>385</v>
       </c>
@@ -14577,10 +14577,10 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
       <c r="F50" s="26" t="s">
         <v>384</v>
       </c>
@@ -14601,10 +14601,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
       <c r="F51" s="26" t="s">
         <v>393</v>
       </c>
@@ -14625,10 +14625,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="97"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
       <c r="F52" s="26" t="s">
         <v>394</v>
       </c>
@@ -14649,10 +14649,10 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
       <c r="F53" s="26" t="s">
         <v>395</v>
       </c>
@@ -14671,10 +14671,10 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
       <c r="F54" s="26" t="s">
         <v>396</v>
       </c>
@@ -14693,10 +14693,10 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103" t="s">
+      <c r="B55" s="107"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83" t="s">
         <v>308</v>
       </c>
       <c r="F55" s="26" t="s">
@@ -14715,10 +14715,10 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
       <c r="F56" s="26" t="s">
         <v>384</v>
       </c>
@@ -14737,12 +14737,12 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="103" t="s">
+      <c r="B57" s="107"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="83" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="83" t="s">
         <v>420</v>
       </c>
       <c r="F57" s="26" t="s">
@@ -14765,10 +14765,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
       <c r="F58" s="26" t="s">
         <v>394</v>
       </c>
@@ -14789,10 +14789,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103" t="s">
+      <c r="B59" s="107"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83" t="s">
         <v>403</v>
       </c>
       <c r="F59" s="27"/>
@@ -14811,10 +14811,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
       <c r="F60" s="26" t="s">
         <v>415</v>
       </c>
@@ -14835,10 +14835,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
       <c r="F61" s="26" t="s">
         <v>416</v>
       </c>
@@ -14859,10 +14859,10 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
       <c r="F62" s="26" t="s">
         <v>419</v>
       </c>
@@ -14885,15 +14885,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="103" t="s">
+      <c r="B63" s="107"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="103" t="s">
+      <c r="E63" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="103"/>
+      <c r="F63" s="83"/>
       <c r="G63" s="19" t="s">
         <v>389</v>
       </c>
@@ -14911,10 +14911,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103" t="s">
+      <c r="B64" s="107"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83" t="s">
         <v>409</v>
       </c>
       <c r="F64" s="26" t="s">
@@ -14937,10 +14937,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
       <c r="F65" s="26" t="s">
         <v>411</v>
       </c>
@@ -14961,10 +14961,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103" t="s">
+      <c r="B66" s="107"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83" t="s">
         <v>414</v>
       </c>
       <c r="F66" s="26" t="s">
@@ -14987,10 +14987,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
       <c r="F67" s="26" t="s">
         <v>411</v>
       </c>
@@ -15011,9 +15011,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="97"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="103"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="26" t="s">
         <v>470</v>
       </c>
@@ -15031,12 +15031,12 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="103" t="s">
+      <c r="B69" s="107"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="83" t="s">
         <v>422</v>
       </c>
-      <c r="E69" s="103" t="s">
+      <c r="E69" s="83" t="s">
         <v>423</v>
       </c>
       <c r="F69" s="26" t="s">
@@ -15059,10 +15059,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="97"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
       <c r="F70" s="26" t="s">
         <v>291</v>
       </c>
@@ -15085,10 +15085,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
       <c r="F71" s="26" t="s">
         <v>287</v>
       </c>
@@ -15111,10 +15111,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
       <c r="F72" s="26" t="s">
         <v>292</v>
       </c>
@@ -15135,10 +15135,10 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="97"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
       <c r="F73" s="26" t="s">
         <v>440</v>
       </c>
@@ -15159,10 +15159,10 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="97"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
       <c r="F74" s="26" t="s">
         <v>293</v>
       </c>
@@ -15183,10 +15183,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="97"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
       <c r="F75" s="26" t="s">
         <v>441</v>
       </c>
@@ -15207,10 +15207,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
       <c r="F76" s="26" t="s">
         <v>432</v>
       </c>
@@ -15233,10 +15233,10 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103" t="s">
+      <c r="B77" s="107"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83" t="s">
         <v>118</v>
       </c>
       <c r="F77" s="26" t="s">
@@ -15261,10 +15261,10 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="99"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
       <c r="F78" s="26" t="s">
         <v>435</v>
       </c>
@@ -15287,28 +15287,28 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="104" t="s">
+      <c r="B79" s="107"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105"/>
-      <c r="K79" s="106"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="117"/>
     </row>
     <row r="80" spans="1:11" ht="40.5">
       <c r="A80" s="51">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="110" t="s">
+      <c r="B80" s="107"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="84" t="s">
         <v>485</v>
       </c>
       <c r="F80" s="41"/>
@@ -15329,10 +15329,10 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81" s="97"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="111"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="85"/>
       <c r="F81" s="29" t="s">
         <v>487</v>
       </c>
@@ -15351,10 +15351,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="99"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="103" t="s">
+      <c r="B82" s="107"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="26" t="s">
@@ -15375,10 +15375,10 @@
         <f t="shared" ref="A83:A88" si="2">ROW()-2</f>
         <v>81</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="103"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="83"/>
       <c r="F83" s="26" t="s">
         <v>354</v>
       </c>
@@ -15401,10 +15401,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="97"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="103"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="83"/>
       <c r="F84" s="26" t="s">
         <v>19</v>
       </c>
@@ -15427,10 +15427,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="99"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="103" t="s">
+      <c r="B85" s="107"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="83" t="s">
         <v>316</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -15453,10 +15453,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="103"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="113"/>
+      <c r="E86" s="83"/>
       <c r="F86" s="26" t="s">
         <v>458</v>
       </c>
@@ -15477,10 +15477,10 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="97"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="103"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="83"/>
       <c r="F87" s="26" t="s">
         <v>415</v>
       </c>
@@ -15501,10 +15501,10 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="97"/>
-      <c r="C88" s="99"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="103" t="s">
+      <c r="B88" s="107"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="83" t="s">
         <v>456</v>
       </c>
       <c r="F88" s="26"/>
@@ -15523,10 +15523,10 @@
         <f t="shared" ref="A89:A137" si="3">ROW()-2</f>
         <v>87</v>
       </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="103"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="83"/>
       <c r="F89" s="26" t="s">
         <v>416</v>
       </c>
@@ -15547,10 +15547,10 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B90" s="97"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="103"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="113"/>
+      <c r="E90" s="83"/>
       <c r="F90" s="26" t="s">
         <v>419</v>
       </c>
@@ -15573,10 +15573,10 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="116" t="s">
+      <c r="B91" s="107"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="92" t="s">
         <v>467</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -15601,10 +15601,10 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="116"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="26" t="s">
         <v>381</v>
       </c>
@@ -15621,28 +15621,28 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="104" t="s">
+      <c r="B93" s="107"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="115" t="s">
         <v>510</v>
       </c>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="106"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="116"/>
+      <c r="H93" s="116"/>
+      <c r="I93" s="116"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="117"/>
     </row>
     <row r="94" spans="1:11" ht="27">
       <c r="A94" s="51">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="103" t="s">
+      <c r="B94" s="107"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="113"/>
+      <c r="E94" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F94" s="26" t="s">
@@ -15663,10 +15663,10 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="103"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="83"/>
       <c r="F95" s="26" t="s">
         <v>354</v>
       </c>
@@ -15689,28 +15689,28 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B96" s="97"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="104" t="s">
+      <c r="B96" s="107"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="115" t="s">
         <v>511</v>
       </c>
-      <c r="E96" s="105"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="105"/>
-      <c r="K96" s="106"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="116"/>
+      <c r="H96" s="116"/>
+      <c r="I96" s="116"/>
+      <c r="J96" s="116"/>
+      <c r="K96" s="117"/>
     </row>
     <row r="97" spans="1:11" ht="27">
       <c r="A97" s="51">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="112"/>
-      <c r="E97" s="103" t="s">
+      <c r="B97" s="107"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="83" t="s">
         <v>352</v>
       </c>
       <c r="F97" s="26" t="s">
@@ -15731,10 +15731,10 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="113"/>
-      <c r="E98" s="103"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="111"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="83"/>
       <c r="F98" s="26" t="s">
         <v>354</v>
       </c>
@@ -15757,26 +15757,26 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="99"/>
-      <c r="D99" s="104" t="s">
+      <c r="B99" s="107"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="105"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="106"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="117"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="51">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B100" s="97"/>
-      <c r="C100" s="99"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="111"/>
       <c r="D100" s="42"/>
       <c r="E100" s="26" t="s">
         <v>352</v>
@@ -15799,26 +15799,26 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="99"/>
-      <c r="D101" s="104" t="s">
+      <c r="B101" s="107"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E101" s="105"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="106"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
+      <c r="J101" s="116"/>
+      <c r="K101" s="117"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="51">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B102" s="97"/>
-      <c r="C102" s="99"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="111"/>
       <c r="D102" s="42"/>
       <c r="E102" s="26" t="s">
         <v>337</v>
@@ -15843,28 +15843,28 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B103" s="97"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="104" t="s">
+      <c r="B103" s="107"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="106"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116"/>
+      <c r="J103" s="116"/>
+      <c r="K103" s="117"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="51">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B104" s="97"/>
-      <c r="C104" s="99"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="103" t="s">
+      <c r="B104" s="107"/>
+      <c r="C104" s="111"/>
+      <c r="D104" s="86"/>
+      <c r="E104" s="83" t="s">
         <v>423</v>
       </c>
       <c r="F104" s="26" t="s">
@@ -15885,10 +15885,10 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="103"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="83"/>
       <c r="F105" s="28" t="s">
         <v>479</v>
       </c>
@@ -15907,9 +15907,9 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="99"/>
-      <c r="D106" s="113"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="26" t="s">
         <v>480</v>
       </c>
@@ -15931,31 +15931,31 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="97"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="104" t="s">
+      <c r="B107" s="107"/>
+      <c r="C107" s="111"/>
+      <c r="D107" s="115" t="s">
         <v>513</v>
       </c>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="106"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+      <c r="G107" s="116"/>
+      <c r="H107" s="116"/>
+      <c r="I107" s="116"/>
+      <c r="J107" s="116"/>
+      <c r="K107" s="117"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="51">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="97"/>
-      <c r="C108" s="99"/>
-      <c r="D108" s="114"/>
-      <c r="E108" s="103" t="s">
+      <c r="B108" s="107"/>
+      <c r="C108" s="111"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="F108" s="103"/>
+      <c r="F108" s="83"/>
       <c r="G108" s="19" t="s">
         <v>134</v>
       </c>
@@ -15971,13 +15971,13 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="97"/>
-      <c r="C109" s="99"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="103" t="s">
+      <c r="B109" s="107"/>
+      <c r="C109" s="111"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="83" t="s">
         <v>278</v>
       </c>
-      <c r="F109" s="103"/>
+      <c r="F109" s="83"/>
       <c r="G109" s="19" t="s">
         <v>134</v>
       </c>
@@ -15993,13 +15993,13 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="97"/>
-      <c r="C110" s="99"/>
-      <c r="D110" s="115"/>
-      <c r="E110" s="103" t="s">
+      <c r="B110" s="107"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="F110" s="103"/>
+      <c r="F110" s="83"/>
       <c r="G110" s="19" t="s">
         <v>243</v>
       </c>
@@ -16013,13 +16013,13 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="97"/>
-      <c r="C111" s="99"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="103" t="s">
+      <c r="B111" s="107"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="F111" s="103"/>
+      <c r="F111" s="83"/>
       <c r="G111" s="19" t="s">
         <v>243</v>
       </c>
@@ -16033,13 +16033,13 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="97"/>
-      <c r="C112" s="99"/>
-      <c r="D112" s="115"/>
-      <c r="E112" s="103" t="s">
+      <c r="B112" s="107"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="F112" s="103"/>
+      <c r="F112" s="83"/>
       <c r="G112" s="19" t="s">
         <v>243</v>
       </c>
@@ -16053,13 +16053,13 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="115"/>
-      <c r="E113" s="103" t="s">
+      <c r="B113" s="107"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="F113" s="103"/>
+      <c r="F113" s="83"/>
       <c r="G113" s="19" t="s">
         <v>243</v>
       </c>
@@ -16073,13 +16073,13 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="97"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="115"/>
-      <c r="E114" s="107" t="s">
+      <c r="B114" s="107"/>
+      <c r="C114" s="111"/>
+      <c r="D114" s="89"/>
+      <c r="E114" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="F114" s="109"/>
+      <c r="F114" s="91"/>
       <c r="G114" s="19" t="s">
         <v>134</v>
       </c>
@@ -16095,10 +16095,10 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="97"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="115"/>
-      <c r="E115" s="103" t="s">
+      <c r="B115" s="107"/>
+      <c r="C115" s="111"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="83" t="s">
         <v>406</v>
       </c>
       <c r="F115" s="26" t="s">
@@ -16121,10 +16121,10 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="97"/>
-      <c r="C116" s="100"/>
-      <c r="D116" s="115"/>
-      <c r="E116" s="103"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="112"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="83"/>
       <c r="F116" s="26" t="s">
         <v>77</v>
       </c>
@@ -16143,17 +16143,17 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="97"/>
-      <c r="C117" s="83" t="s">
+      <c r="B117" s="107"/>
+      <c r="C117" s="96" t="s">
         <v>525</v>
       </c>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11">
@@ -16161,13 +16161,13 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="97"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="82" t="s">
+      <c r="B118" s="107"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
       <c r="G118" s="20" t="s">
         <v>518</v>
       </c>
@@ -16183,13 +16183,13 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="97"/>
-      <c r="C119" s="86"/>
-      <c r="D119" s="87" t="s">
+      <c r="B119" s="107"/>
+      <c r="C119" s="120"/>
+      <c r="D119" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E119" s="88"/>
-      <c r="F119" s="81"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="82"/>
       <c r="G119" s="20" t="s">
         <v>533</v>
       </c>
@@ -16203,17 +16203,17 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="97"/>
-      <c r="C120" s="83" t="s">
+      <c r="B120" s="107"/>
+      <c r="C120" s="96" t="s">
         <v>524</v>
       </c>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-      <c r="J120" s="83"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+      <c r="J120" s="96"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11">
@@ -16221,13 +16221,13 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="97"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="82" t="s">
+      <c r="B121" s="107"/>
+      <c r="C121" s="119"/>
+      <c r="D121" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
       <c r="G121" s="20" t="s">
         <v>518</v>
       </c>
@@ -16243,13 +16243,13 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="97"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="87" t="s">
+      <c r="B122" s="107"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E122" s="88"/>
-      <c r="F122" s="81"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="82"/>
       <c r="G122" s="20"/>
       <c r="H122" s="38"/>
       <c r="I122" s="1"/>
@@ -16261,17 +16261,17 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="97"/>
-      <c r="C123" s="83" t="s">
+      <c r="B123" s="107"/>
+      <c r="C123" s="96" t="s">
         <v>526</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11">
@@ -16279,13 +16279,13 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="97"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="82" t="s">
+      <c r="B124" s="107"/>
+      <c r="C124" s="119"/>
+      <c r="D124" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E124" s="82"/>
-      <c r="F124" s="82"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
       <c r="G124" s="20" t="s">
         <v>531</v>
       </c>
@@ -16301,13 +16301,13 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="86"/>
-      <c r="D125" s="87" t="s">
+      <c r="B125" s="107"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E125" s="88"/>
-      <c r="F125" s="81"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="82"/>
       <c r="G125" s="20" t="s">
         <v>533</v>
       </c>
@@ -16321,17 +16321,17 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="83" t="s">
+      <c r="B126" s="107"/>
+      <c r="C126" s="96" t="s">
         <v>527</v>
       </c>
-      <c r="D126" s="83"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11">
@@ -16339,13 +16339,13 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="97"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="82" t="s">
+      <c r="B127" s="107"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
       <c r="G127" s="20" t="s">
         <v>518</v>
       </c>
@@ -16361,13 +16361,13 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="97"/>
-      <c r="C128" s="86"/>
-      <c r="D128" s="87" t="s">
+      <c r="B128" s="107"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E128" s="88"/>
-      <c r="F128" s="81"/>
+      <c r="E128" s="110"/>
+      <c r="F128" s="82"/>
       <c r="G128" s="20" t="s">
         <v>533</v>
       </c>
@@ -16381,17 +16381,17 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="97"/>
-      <c r="C129" s="83" t="s">
+      <c r="B129" s="107"/>
+      <c r="C129" s="96" t="s">
         <v>528</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="96"/>
+      <c r="F129" s="96"/>
+      <c r="G129" s="96"/>
+      <c r="H129" s="96"/>
+      <c r="I129" s="96"/>
+      <c r="J129" s="96"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11">
@@ -16399,13 +16399,13 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="97"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="82" t="s">
+      <c r="B130" s="107"/>
+      <c r="C130" s="119"/>
+      <c r="D130" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E130" s="82"/>
-      <c r="F130" s="82"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
       <c r="G130" s="20" t="s">
         <v>518</v>
       </c>
@@ -16421,13 +16421,13 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="97"/>
-      <c r="C131" s="86"/>
-      <c r="D131" s="87" t="s">
+      <c r="B131" s="107"/>
+      <c r="C131" s="120"/>
+      <c r="D131" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E131" s="88"/>
-      <c r="F131" s="81"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="82"/>
       <c r="G131" s="20" t="s">
         <v>533</v>
       </c>
@@ -16441,17 +16441,17 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B132" s="97"/>
-      <c r="C132" s="83" t="s">
+      <c r="B132" s="107"/>
+      <c r="C132" s="96" t="s">
         <v>529</v>
       </c>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="96"/>
+      <c r="F132" s="96"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="96"/>
+      <c r="I132" s="96"/>
+      <c r="J132" s="96"/>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11">
@@ -16459,13 +16459,13 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="B133" s="97"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="82" t="s">
+      <c r="B133" s="107"/>
+      <c r="C133" s="119"/>
+      <c r="D133" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E133" s="82"/>
-      <c r="F133" s="82"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="98"/>
       <c r="G133" s="20" t="s">
         <v>518</v>
       </c>
@@ -16481,13 +16481,13 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="B134" s="97"/>
-      <c r="C134" s="86"/>
-      <c r="D134" s="87" t="s">
+      <c r="B134" s="107"/>
+      <c r="C134" s="120"/>
+      <c r="D134" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E134" s="88"/>
-      <c r="F134" s="81"/>
+      <c r="E134" s="110"/>
+      <c r="F134" s="82"/>
       <c r="G134" s="20" t="s">
         <v>533</v>
       </c>
@@ -16501,17 +16501,17 @@
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B135" s="97"/>
-      <c r="C135" s="83" t="s">
+      <c r="B135" s="107"/>
+      <c r="C135" s="96" t="s">
         <v>530</v>
       </c>
-      <c r="D135" s="83"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="83"/>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
+      <c r="D135" s="96"/>
+      <c r="E135" s="96"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="96"/>
+      <c r="H135" s="96"/>
+      <c r="I135" s="96"/>
+      <c r="J135" s="96"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11">
@@ -16519,13 +16519,13 @@
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B136" s="97"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="82" t="s">
+      <c r="B136" s="107"/>
+      <c r="C136" s="119"/>
+      <c r="D136" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
       <c r="G136" s="20" t="s">
         <v>518</v>
       </c>
@@ -16541,13 +16541,13 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B137" s="98"/>
-      <c r="C137" s="86"/>
-      <c r="D137" s="87" t="s">
+      <c r="B137" s="108"/>
+      <c r="C137" s="120"/>
+      <c r="D137" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E137" s="88"/>
-      <c r="F137" s="81"/>
+      <c r="E137" s="110"/>
+      <c r="F137" s="82"/>
       <c r="G137" s="20" t="s">
         <v>533</v>
       </c>
@@ -16558,6 +16558,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="D79:K79"/>
+    <mergeCell ref="D93:K93"/>
+    <mergeCell ref="D96:K96"/>
+    <mergeCell ref="D99:K99"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D101:K101"/>
+    <mergeCell ref="D103:K103"/>
+    <mergeCell ref="D107:K107"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C132:J132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D56"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="D14:F14"/>
@@ -16582,93 +16669,6 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D56"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D69:D78"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="D79:K79"/>
-    <mergeCell ref="D93:K93"/>
-    <mergeCell ref="D96:K96"/>
-    <mergeCell ref="D99:K99"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D101:K101"/>
-    <mergeCell ref="D103:K103"/>
-    <mergeCell ref="D107:K107"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="C132:J132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="C123:J123"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H69:H72 H88:H92 H74:H78 H102 H118:H119 H80:H81 H1:H2 H9:H65 H138:H1048576">
@@ -16832,10 +16832,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -16851,10 +16851,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -16880,10 +16880,10 @@
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="8" t="s">
         <v>74</v>
       </c>
@@ -16899,10 +16899,10 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="33" t="s">
         <v>260</v>
       </c>
@@ -16916,10 +16916,10 @@
         <f>ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="127" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -16929,7 +16929,7 @@
         <f>ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="121"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="1" t="s">
         <v>561</v>
       </c>
@@ -16946,7 +16946,7 @@
         <f>ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="121"/>
+      <c r="B10" s="125"/>
       <c r="C10" s="1" t="s">
         <v>562</v>
       </c>
@@ -16963,7 +16963,7 @@
         <f t="shared" ref="A11:A13" si="1">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="121"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="1" t="s">
         <v>543</v>
       </c>
@@ -16980,7 +16980,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="1" t="s">
         <v>545</v>
       </c>
@@ -16997,7 +16997,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="58" t="s">
         <v>169</v>
       </c>
@@ -17052,10 +17052,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -17071,10 +17071,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -17084,7 +17084,7 @@
         <f t="shared" ref="A4:A7" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="126"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="2" t="s">
         <v>229</v>
       </c>
@@ -17101,7 +17101,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="126"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="2" t="s">
         <v>341</v>
       </c>
@@ -17118,7 +17118,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="126"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="2" t="s">
         <v>308</v>
       </c>
@@ -17135,7 +17135,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="127"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="58" t="s">
         <v>554</v>
       </c>
@@ -17151,10 +17151,10 @@
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="8" t="s">
         <v>74</v>
       </c>
@@ -17170,10 +17170,10 @@
         <f t="shared" ref="A10:A17" si="1">ROW()-9</f>
         <v>1</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -17183,7 +17183,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B11" s="125"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="2" t="s">
         <v>559</v>
       </c>
@@ -17200,7 +17200,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B12" s="125"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="2" t="s">
         <v>574</v>
       </c>
@@ -17219,7 +17219,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="125"/>
+      <c r="B13" s="129"/>
       <c r="C13" s="2" t="s">
         <v>561</v>
       </c>
@@ -17238,7 +17238,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="125"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="2" t="s">
         <v>562</v>
       </c>
@@ -17255,7 +17255,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="125"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="58" t="s">
         <v>568</v>
       </c>
@@ -17274,7 +17274,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="125"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="60" t="s">
         <v>570</v>
       </c>
@@ -17291,10 +17291,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="58" t="s">
         <v>77</v>
       </c>
@@ -17347,10 +17347,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -17460,7 +17460,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="126"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="1" t="s">
         <v>261</v>
       </c>
@@ -17477,7 +17477,7 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="1" t="s">
         <v>561</v>
       </c>
@@ -17494,7 +17494,7 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="1" t="s">
         <v>562</v>
       </c>
@@ -17511,7 +17511,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="2" t="s">
         <v>574</v>
       </c>
@@ -17530,7 +17530,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="1" t="s">
         <v>590</v>
       </c>
@@ -17547,7 +17547,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="127"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="1" t="s">
         <v>152</v>
       </c>
@@ -18057,10 +18057,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -18076,10 +18076,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="3" t="s">
         <v>102</v>
       </c>
@@ -18348,10 +18348,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -18367,10 +18367,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="3" t="s">
         <v>497</v>
       </c>
@@ -18486,10 +18486,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -18505,10 +18505,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="3" t="s">
         <v>77</v>
       </c>
@@ -18524,10 +18524,10 @@
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="C4" s="77"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -18707,10 +18707,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -18726,10 +18726,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>501</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -18875,10 +18875,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -18894,10 +18894,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="3" t="s">
         <v>105</v>
       </c>
@@ -18911,10 +18911,10 @@
         <f t="shared" ref="A4:A9" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="C4" s="81"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="4" t="s">
         <v>105</v>
       </c>
@@ -18928,10 +18928,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="4" t="s">
         <v>105</v>
       </c>
@@ -18945,10 +18945,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="81"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="4" t="s">
         <v>105</v>
       </c>
@@ -18959,10 +18959,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="77" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="37"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -19053,10 +19053,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
@@ -19072,10 +19072,10 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -19206,10 +19206,10 @@
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="8" t="s">
         <v>74</v>
       </c>

--- a/docs/excel/画面設計.xlsx
+++ b/docs/excel/画面設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="【画面一覧】" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="12.画像取得" sheetId="16" r:id="rId14"/>
     <sheet name="13.画像一覧" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="601">
   <si>
     <t>フェア一覧</t>
     <rPh sb="3" eb="5">
@@ -6381,6 +6381,37 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>≪選択肢≫
+当日～5日前</t>
+    <rPh sb="1" eb="4">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100文字
+改行無効</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6421,7 +6452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6467,6 +6498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6895,7 +6932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7145,44 +7182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7190,7 +7191,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7223,12 +7233,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7241,6 +7245,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7250,14 +7257,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7291,6 +7328,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8236,7 +8294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
@@ -9255,8 +9313,8 @@
   <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D38"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9288,10 +9346,10 @@
       <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="43" t="s">
         <v>369</v>
       </c>
@@ -9331,37 +9389,37 @@
         <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="93" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="48" t="s">
         <v>517</v>
       </c>
@@ -9383,7 +9441,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="46" t="s">
         <v>516</v>
       </c>
@@ -9411,37 +9469,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="101" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="97"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" ht="27">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="90" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="19" t="s">
         <v>243</v>
       </c>
@@ -9465,13 +9523,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="18" t="s">
         <v>358</v>
       </c>
@@ -9509,13 +9567,13 @@
         <f t="shared" ref="A9:A76" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="83" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="18" t="s">
         <v>362</v>
       </c>
@@ -9553,19 +9611,21 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="11" t="s">
         <v>364</v>
@@ -9591,17 +9651,19 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="11" t="s">
         <v>364</v>
@@ -9622,18 +9684,18 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="18" t="s">
         <v>358</v>
       </c>
@@ -9645,7 +9707,7 @@
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="16" t="s">
-        <v>297</v>
+        <v>600</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>304</v>
@@ -9671,13 +9733,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="83" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="17" t="s">
         <v>358</v>
       </c>
@@ -9705,13 +9767,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="83" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="19" t="s">
         <v>358</v>
       </c>
@@ -9739,13 +9801,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="83" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="17" t="s">
         <v>367</v>
       </c>
@@ -9785,13 +9847,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="83" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="17" t="s">
         <v>372</v>
       </c>
@@ -9817,15 +9879,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="17" t="s">
         <v>374</v>
       </c>
@@ -9863,13 +9925,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="83" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="17" t="s">
         <v>358</v>
       </c>
@@ -9903,13 +9965,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="83" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="17" t="s">
         <v>367</v>
       </c>
@@ -9943,13 +10005,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="83" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="17" t="s">
         <v>367</v>
       </c>
@@ -9987,13 +10049,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="83" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="83"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="17" t="s">
         <v>358</v>
       </c>
@@ -10031,10 +10093,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="83" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="104" t="s">
         <v>327</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -10061,10 +10123,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="83"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="26" t="s">
         <v>328</v>
       </c>
@@ -10089,13 +10151,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="83" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="17" t="s">
         <v>367</v>
       </c>
@@ -10117,10 +10179,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="83" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="104" t="s">
         <v>334</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -10149,10 +10211,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="26" t="s">
         <v>596</v>
       </c>
@@ -10179,10 +10241,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="83"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="26" t="s">
         <v>597</v>
       </c>
@@ -10209,10 +10271,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="26" t="s">
         <v>598</v>
       </c>
@@ -10239,15 +10301,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="F29" s="83"/>
+      <c r="F29" s="104"/>
       <c r="G29" s="17" t="s">
         <v>358</v>
       </c>
@@ -10269,15 +10331,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="83" t="s">
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="83"/>
+      <c r="F30" s="104"/>
       <c r="G30" s="17" t="s">
         <v>386</v>
       </c>
@@ -10297,13 +10359,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104" t="s">
         <v>349</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="19" t="s">
         <v>373</v>
       </c>
@@ -10323,13 +10385,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="83"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="19" t="s">
         <v>373</v>
       </c>
@@ -10349,13 +10411,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104" t="s">
         <v>351</v>
       </c>
-      <c r="F33" s="83"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="19" t="s">
         <v>373</v>
       </c>
@@ -10375,10 +10437,10 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="90" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="108" t="s">
         <v>342</v>
       </c>
       <c r="F34" s="64"/>
@@ -10403,10 +10465,10 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
       <c r="F35" s="26" t="s">
         <v>345</v>
       </c>
@@ -10433,13 +10495,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="F36" s="83"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="19" t="s">
         <v>373</v>
       </c>
@@ -10459,10 +10521,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="90" t="s">
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="108" t="s">
         <v>344</v>
       </c>
       <c r="F37" s="64"/>
@@ -10487,10 +10549,10 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="26" t="s">
         <v>345</v>
       </c>
@@ -10515,547 +10577,547 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="132" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="132" t="s">
         <v>338</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="51">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="26" t="s">
+      <c r="B40" s="98"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="138"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="51">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="26" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="138"/>
+      <c r="P41" s="138"/>
+      <c r="Q41" s="138"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="51">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132" t="s">
         <v>349</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="51">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="26" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="137" t="s">
         <v>356</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="51">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83" t="s">
+      <c r="B44" s="98"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132" t="s">
         <v>340</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="138"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="51">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="26" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+      <c r="O45" s="138"/>
+      <c r="P45" s="138"/>
+      <c r="Q45" s="138"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="51">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83" t="s">
+      <c r="B46" s="98"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="135"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137" t="s">
         <v>390</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="138"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="51">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="26" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="133" t="s">
         <v>385</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="136" t="s">
         <v>387</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="138"/>
+      <c r="Q47" s="138"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="51">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="26" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="138"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="51">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="26" t="s">
+      <c r="B49" s="98"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="133" t="s">
         <v>393</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="134" t="s">
         <v>362</v>
       </c>
-      <c r="H49" s="21" t="s">
+      <c r="H49" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="136" t="s">
         <v>397</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+      <c r="O49" s="138"/>
+      <c r="P49" s="138"/>
+      <c r="Q49" s="138"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="51">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="26" t="s">
+      <c r="B50" s="98"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="133" t="s">
         <v>394</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="134" t="s">
         <v>362</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="H50" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="136" t="s">
         <v>397</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="138"/>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="51">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="107"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="26" t="s">
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="133" t="s">
         <v>395</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="19" t="s">
+      <c r="H51" s="135"/>
+      <c r="I51" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="51">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="26" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133" t="s">
         <v>396</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="134" t="s">
         <v>358</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="19" t="s">
+      <c r="H52" s="135"/>
+      <c r="I52" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="51">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83" t="s">
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="134" t="s">
         <v>389</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
+      <c r="H53" s="135"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="51">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="107"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="26" t="s">
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133" t="s">
         <v>384</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="134" t="s">
         <v>399</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="19" t="s">
+      <c r="H54" s="135"/>
+      <c r="I54" s="136" t="s">
         <v>398</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+      <c r="O54" s="138"/>
+      <c r="P54" s="138"/>
+      <c r="Q54" s="138"/>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="51">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="107"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="132" t="s">
         <v>405</v>
       </c>
-      <c r="E55" s="83" t="s">
+      <c r="E55" s="132" t="s">
         <v>420</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F55" s="133" t="s">
         <v>393</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="136" t="s">
         <v>362</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="19" t="s">
+      <c r="H55" s="135"/>
+      <c r="I55" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="137" t="s">
         <v>401</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
+      <c r="K55" s="138"/>
+      <c r="L55" s="138"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+      <c r="O55" s="138"/>
+      <c r="P55" s="138"/>
+      <c r="Q55" s="138"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="51">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="26" t="s">
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133" t="s">
         <v>394</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="136" t="s">
         <v>362</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="19" t="s">
+      <c r="H56" s="135"/>
+      <c r="I56" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="137" t="s">
         <v>402</v>
       </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="138"/>
+      <c r="Q56" s="138"/>
     </row>
     <row r="57" spans="1:17" ht="27">
       <c r="A57" s="51">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="83" t="s">
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="104" t="s">
         <v>406</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="F57" s="83"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="17" t="s">
         <v>389</v>
       </c>
@@ -11079,10 +11141,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83" t="s">
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104" t="s">
         <v>409</v>
       </c>
       <c r="F58" s="26" t="s">
@@ -11096,7 +11158,7 @@
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="11" t="s">
-        <v>412</v>
+        <v>599</v>
       </c>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
@@ -11111,10 +11173,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
       <c r="F59" s="26" t="s">
         <v>411</v>
       </c>
@@ -11141,10 +11203,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83" t="s">
+      <c r="B60" s="98"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104" t="s">
         <v>414</v>
       </c>
       <c r="F60" s="26" t="s">
@@ -11173,10 +11235,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="26" t="s">
         <v>411</v>
       </c>
@@ -11200,9 +11262,9 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="51"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="83"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="104"/>
       <c r="E62" s="26" t="s">
         <v>470</v>
       </c>
@@ -11228,12 +11290,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="107"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="83" t="s">
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="E63" s="104" t="s">
         <v>423</v>
       </c>
       <c r="F63" s="26" t="s">
@@ -11262,10 +11324,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
       <c r="F64" s="26" t="s">
         <v>427</v>
       </c>
@@ -11298,10 +11360,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="26" t="s">
         <v>428</v>
       </c>
@@ -11334,10 +11396,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
       <c r="F66" s="26" t="s">
         <v>429</v>
       </c>
@@ -11364,10 +11426,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="26" t="s">
         <v>464</v>
       </c>
@@ -11394,10 +11456,10 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
       <c r="F68" s="26" t="s">
         <v>430</v>
       </c>
@@ -11424,10 +11486,10 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="26" t="s">
         <v>465</v>
       </c>
@@ -11454,10 +11516,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="107"/>
-      <c r="C70" s="111"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
       <c r="F70" s="26" t="s">
         <v>432</v>
       </c>
@@ -11488,10 +11550,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83" t="s">
+      <c r="B71" s="98"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104" t="s">
         <v>434</v>
       </c>
       <c r="F71" s="26" t="s">
@@ -11524,10 +11586,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="107"/>
-      <c r="C72" s="111"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
       <c r="F72" s="26" t="s">
         <v>435</v>
       </c>
@@ -11558,34 +11620,34 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="115" t="s">
+      <c r="B73" s="98"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="105" t="s">
         <v>338</v>
       </c>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
-      <c r="I73" s="116"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
-      <c r="L73" s="116"/>
-      <c r="M73" s="116"/>
-      <c r="N73" s="116"/>
-      <c r="O73" s="116"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="117"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="106"/>
+      <c r="P73" s="106"/>
+      <c r="Q73" s="107"/>
     </row>
     <row r="74" spans="1:17" ht="40.5">
       <c r="A74" s="51">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="107"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="84" t="s">
+      <c r="B74" s="98"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="114" t="s">
         <v>485</v>
       </c>
       <c r="F74" s="41"/>
@@ -11612,10 +11674,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="85"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="115"/>
       <c r="F75" s="29" t="s">
         <v>487</v>
       </c>
@@ -11640,10 +11702,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="107"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="83" t="s">
+      <c r="B76" s="98"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F76" s="26" t="s">
@@ -11670,10 +11732,10 @@
         <f t="shared" ref="A77:A103" si="2">ROW()-2</f>
         <v>75</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="83"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="104"/>
       <c r="F77" s="26" t="s">
         <v>354</v>
       </c>
@@ -11702,10 +11764,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="83"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="104"/>
       <c r="F78" s="26" t="s">
         <v>355</v>
       </c>
@@ -11734,10 +11796,10 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="83" t="s">
+      <c r="B79" s="98"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="104" t="s">
         <v>316</v>
       </c>
       <c r="F79" s="26" t="s">
@@ -11766,10 +11828,10 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="107"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="83"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="26" t="s">
         <v>458</v>
       </c>
@@ -11796,10 +11858,10 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="83"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="104"/>
       <c r="F81" s="26" t="s">
         <v>415</v>
       </c>
@@ -11826,10 +11888,10 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="90" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="108" t="s">
         <v>456</v>
       </c>
       <c r="F82" s="63"/>
@@ -11854,10 +11916,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="107"/>
-      <c r="C83" s="111"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="83"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="104"/>
       <c r="F83" s="26" t="s">
         <v>416</v>
       </c>
@@ -11884,10 +11946,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="83"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="104"/>
       <c r="F84" s="26" t="s">
         <v>419</v>
       </c>
@@ -11916,10 +11978,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="92" t="s">
+      <c r="B85" s="98"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="120" t="s">
         <v>467</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -11950,10 +12012,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="92"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="120"/>
       <c r="F86" s="26" t="s">
         <v>381</v>
       </c>
@@ -11976,34 +12038,34 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="111"/>
-      <c r="D87" s="115" t="s">
+      <c r="B87" s="98"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="116"/>
-      <c r="H87" s="116"/>
-      <c r="I87" s="116"/>
-      <c r="J87" s="116"/>
-      <c r="K87" s="116"/>
-      <c r="L87" s="116"/>
-      <c r="M87" s="116"/>
-      <c r="N87" s="116"/>
-      <c r="O87" s="116"/>
-      <c r="P87" s="116"/>
-      <c r="Q87" s="117"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="106"/>
+      <c r="L87" s="106"/>
+      <c r="M87" s="106"/>
+      <c r="N87" s="106"/>
+      <c r="O87" s="106"/>
+      <c r="P87" s="106"/>
+      <c r="Q87" s="107"/>
     </row>
     <row r="88" spans="1:17" ht="27">
       <c r="A88" s="51">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="107"/>
-      <c r="C88" s="111"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="83" t="s">
+      <c r="B88" s="98"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F88" s="26" t="s">
@@ -12030,10 +12092,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="107"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="83"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="104"/>
       <c r="F89" s="26" t="s">
         <v>354</v>
       </c>
@@ -12062,34 +12124,34 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="107"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="115" t="s">
+      <c r="B90" s="98"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="E90" s="116"/>
-      <c r="F90" s="116"/>
-      <c r="G90" s="116"/>
-      <c r="H90" s="116"/>
-      <c r="I90" s="116"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
-      <c r="L90" s="116"/>
-      <c r="M90" s="116"/>
-      <c r="N90" s="116"/>
-      <c r="O90" s="116"/>
-      <c r="P90" s="116"/>
-      <c r="Q90" s="117"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="106"/>
+      <c r="K90" s="106"/>
+      <c r="L90" s="106"/>
+      <c r="M90" s="106"/>
+      <c r="N90" s="106"/>
+      <c r="O90" s="106"/>
+      <c r="P90" s="106"/>
+      <c r="Q90" s="107"/>
     </row>
     <row r="91" spans="1:17" ht="27">
       <c r="A91" s="51">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="107"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="83" t="s">
+      <c r="B91" s="98"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -12116,10 +12178,10 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="111"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="83"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="104"/>
       <c r="F92" s="26" t="s">
         <v>354</v>
       </c>
@@ -12148,32 +12210,32 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="115" t="s">
+      <c r="B93" s="98"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="E93" s="116"/>
-      <c r="F93" s="116"/>
-      <c r="G93" s="116"/>
-      <c r="H93" s="116"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="116"/>
-      <c r="L93" s="116"/>
-      <c r="M93" s="116"/>
-      <c r="N93" s="116"/>
-      <c r="O93" s="116"/>
-      <c r="P93" s="116"/>
-      <c r="Q93" s="117"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="106"/>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="106"/>
+      <c r="L93" s="106"/>
+      <c r="M93" s="106"/>
+      <c r="N93" s="106"/>
+      <c r="O93" s="106"/>
+      <c r="P93" s="106"/>
+      <c r="Q93" s="107"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="51">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="111"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="42"/>
       <c r="E94" s="26" t="s">
         <v>352</v>
@@ -12202,32 +12264,32 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="111"/>
-      <c r="D95" s="115" t="s">
+      <c r="B95" s="98"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="116"/>
-      <c r="H95" s="116"/>
-      <c r="I95" s="116"/>
-      <c r="J95" s="116"/>
-      <c r="K95" s="116"/>
-      <c r="L95" s="116"/>
-      <c r="M95" s="116"/>
-      <c r="N95" s="116"/>
-      <c r="O95" s="116"/>
-      <c r="P95" s="116"/>
-      <c r="Q95" s="117"/>
+      <c r="E95" s="106"/>
+      <c r="F95" s="106"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="106"/>
+      <c r="I95" s="106"/>
+      <c r="J95" s="106"/>
+      <c r="K95" s="106"/>
+      <c r="L95" s="106"/>
+      <c r="M95" s="106"/>
+      <c r="N95" s="106"/>
+      <c r="O95" s="106"/>
+      <c r="P95" s="106"/>
+      <c r="Q95" s="107"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="51">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="107"/>
-      <c r="C96" s="111"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="42"/>
       <c r="E96" s="26" t="s">
         <v>337</v>
@@ -12258,34 +12320,34 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="107"/>
-      <c r="C97" s="111"/>
-      <c r="D97" s="115" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="116"/>
-      <c r="H97" s="116"/>
-      <c r="I97" s="116"/>
-      <c r="J97" s="116"/>
-      <c r="K97" s="116"/>
-      <c r="L97" s="116"/>
-      <c r="M97" s="116"/>
-      <c r="N97" s="116"/>
-      <c r="O97" s="116"/>
-      <c r="P97" s="116"/>
-      <c r="Q97" s="117"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="106"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="106"/>
+      <c r="L97" s="106"/>
+      <c r="M97" s="106"/>
+      <c r="N97" s="106"/>
+      <c r="O97" s="106"/>
+      <c r="P97" s="106"/>
+      <c r="Q97" s="107"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="51">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="111"/>
-      <c r="D98" s="86"/>
-      <c r="E98" s="83" t="s">
+      <c r="B98" s="98"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="116"/>
+      <c r="E98" s="104" t="s">
         <v>423</v>
       </c>
       <c r="F98" s="26" t="s">
@@ -12312,10 +12374,10 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="83"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="104"/>
       <c r="F99" s="28" t="s">
         <v>479</v>
       </c>
@@ -12340,9 +12402,9 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="107"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="87"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="117"/>
       <c r="E100" s="26" t="s">
         <v>480</v>
       </c>
@@ -12370,37 +12432,37 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="107"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="115" t="s">
+      <c r="B101" s="98"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="116"/>
-      <c r="L101" s="116"/>
-      <c r="M101" s="116"/>
-      <c r="N101" s="116"/>
-      <c r="O101" s="116"/>
-      <c r="P101" s="116"/>
-      <c r="Q101" s="117"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="106"/>
+      <c r="L101" s="106"/>
+      <c r="M101" s="106"/>
+      <c r="N101" s="106"/>
+      <c r="O101" s="106"/>
+      <c r="P101" s="106"/>
+      <c r="Q101" s="107"/>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="107"/>
-      <c r="C102" s="111"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="83" t="s">
+      <c r="B102" s="98"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="83"/>
+      <c r="F102" s="104"/>
       <c r="G102" s="19" t="s">
         <v>358</v>
       </c>
@@ -12422,13 +12484,13 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="83" t="s">
+      <c r="B103" s="98"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="F103" s="83"/>
+      <c r="F103" s="104"/>
       <c r="G103" s="19" t="s">
         <v>358</v>
       </c>
@@ -12450,13 +12512,13 @@
         <f t="shared" ref="A104:A131" si="3">ROW()-2</f>
         <v>102</v>
       </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="83" t="s">
+      <c r="B104" s="98"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="104" t="s">
         <v>474</v>
       </c>
-      <c r="F104" s="83"/>
+      <c r="F104" s="104"/>
       <c r="G104" s="19" t="s">
         <v>372</v>
       </c>
@@ -12476,13 +12538,13 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="107"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="83" t="s">
+      <c r="B105" s="98"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="F105" s="83"/>
+      <c r="F105" s="104"/>
       <c r="G105" s="19" t="s">
         <v>372</v>
       </c>
@@ -12502,13 +12564,13 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="107"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="83" t="s">
+      <c r="B106" s="98"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="119"/>
+      <c r="E106" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="F106" s="83"/>
+      <c r="F106" s="104"/>
       <c r="G106" s="19" t="s">
         <v>372</v>
       </c>
@@ -12528,13 +12590,13 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="107"/>
-      <c r="C107" s="111"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="83" t="s">
+      <c r="B107" s="98"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="F107" s="83"/>
+      <c r="F107" s="104"/>
       <c r="G107" s="19" t="s">
         <v>372</v>
       </c>
@@ -12554,13 +12616,13 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="107"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="90" t="s">
+      <c r="B108" s="98"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="119"/>
+      <c r="E108" s="108" t="s">
         <v>489</v>
       </c>
-      <c r="F108" s="91"/>
+      <c r="F108" s="110"/>
       <c r="G108" s="19" t="s">
         <v>358</v>
       </c>
@@ -12582,10 +12644,10 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="83" t="s">
+      <c r="B109" s="98"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="119"/>
+      <c r="E109" s="104" t="s">
         <v>406</v>
       </c>
       <c r="F109" s="26" t="s">
@@ -12614,10 +12676,10 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="107"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="83"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="104"/>
       <c r="F110" s="26" t="s">
         <v>483</v>
       </c>
@@ -12642,37 +12704,37 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="107"/>
-      <c r="C111" s="96" t="s">
+      <c r="B111" s="98"/>
+      <c r="C111" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="96"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="96"/>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
-      <c r="N111" s="96"/>
-      <c r="O111" s="96"/>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="97"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="84"/>
+      <c r="G111" s="84"/>
+      <c r="H111" s="84"/>
+      <c r="I111" s="84"/>
+      <c r="J111" s="84"/>
+      <c r="K111" s="84"/>
+      <c r="L111" s="84"/>
+      <c r="M111" s="84"/>
+      <c r="N111" s="84"/>
+      <c r="O111" s="84"/>
+      <c r="P111" s="84"/>
+      <c r="Q111" s="85"/>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="51">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="107"/>
-      <c r="C112" s="119"/>
-      <c r="D112" s="98" t="s">
+      <c r="B112" s="98"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E112" s="98"/>
-      <c r="F112" s="98"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
       <c r="G112" s="20" t="s">
         <v>518</v>
       </c>
@@ -12694,12 +12756,12 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="107"/>
-      <c r="C113" s="120"/>
-      <c r="D113" s="109" t="s">
+      <c r="B113" s="98"/>
+      <c r="C113" s="87"/>
+      <c r="D113" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E113" s="110"/>
+      <c r="E113" s="89"/>
       <c r="F113" s="82"/>
       <c r="G113" s="20" t="s">
         <v>533</v>
@@ -12720,37 +12782,37 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="107"/>
-      <c r="C114" s="96" t="s">
+      <c r="B114" s="98"/>
+      <c r="C114" s="84" t="s">
         <v>524</v>
       </c>
-      <c r="D114" s="96"/>
-      <c r="E114" s="96"/>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
-      <c r="I114" s="96"/>
-      <c r="J114" s="96"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="M114" s="96"/>
-      <c r="N114" s="96"/>
-      <c r="O114" s="96"/>
-      <c r="P114" s="96"/>
-      <c r="Q114" s="97"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="84"/>
+      <c r="G114" s="84"/>
+      <c r="H114" s="84"/>
+      <c r="I114" s="84"/>
+      <c r="J114" s="84"/>
+      <c r="K114" s="84"/>
+      <c r="L114" s="84"/>
+      <c r="M114" s="84"/>
+      <c r="N114" s="84"/>
+      <c r="O114" s="84"/>
+      <c r="P114" s="84"/>
+      <c r="Q114" s="85"/>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="51">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="107"/>
-      <c r="C115" s="119"/>
-      <c r="D115" s="98" t="s">
+      <c r="B115" s="98"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E115" s="98"/>
-      <c r="F115" s="98"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
       <c r="G115" s="20" t="s">
         <v>518</v>
       </c>
@@ -12772,12 +12834,12 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="107"/>
-      <c r="C116" s="120"/>
-      <c r="D116" s="109" t="s">
+      <c r="B116" s="98"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E116" s="110"/>
+      <c r="E116" s="89"/>
       <c r="F116" s="82"/>
       <c r="G116" s="20"/>
       <c r="H116" s="38"/>
@@ -12796,37 +12858,37 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="107"/>
-      <c r="C117" s="96" t="s">
+      <c r="B117" s="98"/>
+      <c r="C117" s="84" t="s">
         <v>526</v>
       </c>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="96"/>
-      <c r="N117" s="96"/>
-      <c r="O117" s="96"/>
-      <c r="P117" s="96"/>
-      <c r="Q117" s="97"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="84"/>
+      <c r="K117" s="84"/>
+      <c r="L117" s="84"/>
+      <c r="M117" s="84"/>
+      <c r="N117" s="84"/>
+      <c r="O117" s="84"/>
+      <c r="P117" s="84"/>
+      <c r="Q117" s="85"/>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="51">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="107"/>
-      <c r="C118" s="119"/>
-      <c r="D118" s="98" t="s">
+      <c r="B118" s="98"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E118" s="98"/>
-      <c r="F118" s="98"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
       <c r="G118" s="20" t="s">
         <v>531</v>
       </c>
@@ -12848,12 +12910,12 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="107"/>
-      <c r="C119" s="120"/>
-      <c r="D119" s="109" t="s">
+      <c r="B119" s="98"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E119" s="110"/>
+      <c r="E119" s="89"/>
       <c r="F119" s="82"/>
       <c r="G119" s="20" t="s">
         <v>533</v>
@@ -12874,37 +12936,37 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="107"/>
-      <c r="C120" s="96" t="s">
+      <c r="B120" s="98"/>
+      <c r="C120" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="96"/>
-      <c r="L120" s="96"/>
-      <c r="M120" s="96"/>
-      <c r="N120" s="96"/>
-      <c r="O120" s="96"/>
-      <c r="P120" s="96"/>
-      <c r="Q120" s="97"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="84"/>
+      <c r="K120" s="84"/>
+      <c r="L120" s="84"/>
+      <c r="M120" s="84"/>
+      <c r="N120" s="84"/>
+      <c r="O120" s="84"/>
+      <c r="P120" s="84"/>
+      <c r="Q120" s="85"/>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="51">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="107"/>
-      <c r="C121" s="119"/>
-      <c r="D121" s="98" t="s">
+      <c r="B121" s="98"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E121" s="98"/>
-      <c r="F121" s="98"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
       <c r="G121" s="20" t="s">
         <v>518</v>
       </c>
@@ -12926,12 +12988,12 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="120"/>
-      <c r="D122" s="109" t="s">
+      <c r="B122" s="98"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E122" s="110"/>
+      <c r="E122" s="89"/>
       <c r="F122" s="82"/>
       <c r="G122" s="20" t="s">
         <v>533</v>
@@ -12952,37 +13014,37 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="96" t="s">
+      <c r="B123" s="98"/>
+      <c r="C123" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="96"/>
-      <c r="L123" s="96"/>
-      <c r="M123" s="96"/>
-      <c r="N123" s="96"/>
-      <c r="O123" s="96"/>
-      <c r="P123" s="96"/>
-      <c r="Q123" s="97"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
+      <c r="H123" s="84"/>
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
+      <c r="K123" s="84"/>
+      <c r="L123" s="84"/>
+      <c r="M123" s="84"/>
+      <c r="N123" s="84"/>
+      <c r="O123" s="84"/>
+      <c r="P123" s="84"/>
+      <c r="Q123" s="85"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="51">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="107"/>
-      <c r="C124" s="119"/>
-      <c r="D124" s="98" t="s">
+      <c r="B124" s="98"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E124" s="98"/>
-      <c r="F124" s="98"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
       <c r="G124" s="20" t="s">
         <v>518</v>
       </c>
@@ -13004,12 +13066,12 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="107"/>
-      <c r="C125" s="120"/>
-      <c r="D125" s="109" t="s">
+      <c r="B125" s="98"/>
+      <c r="C125" s="87"/>
+      <c r="D125" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E125" s="110"/>
+      <c r="E125" s="89"/>
       <c r="F125" s="82"/>
       <c r="G125" s="20" t="s">
         <v>533</v>
@@ -13030,37 +13092,37 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="107"/>
-      <c r="C126" s="96" t="s">
+      <c r="B126" s="98"/>
+      <c r="C126" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="D126" s="96"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
-      <c r="N126" s="96"/>
-      <c r="O126" s="96"/>
-      <c r="P126" s="96"/>
-      <c r="Q126" s="97"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="84"/>
+      <c r="F126" s="84"/>
+      <c r="G126" s="84"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="84"/>
+      <c r="J126" s="84"/>
+      <c r="K126" s="84"/>
+      <c r="L126" s="84"/>
+      <c r="M126" s="84"/>
+      <c r="N126" s="84"/>
+      <c r="O126" s="84"/>
+      <c r="P126" s="84"/>
+      <c r="Q126" s="85"/>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="51">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="107"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="98" t="s">
+      <c r="B127" s="98"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="98"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
       <c r="G127" s="20" t="s">
         <v>518</v>
       </c>
@@ -13082,12 +13144,12 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="120"/>
-      <c r="D128" s="109" t="s">
+      <c r="B128" s="98"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E128" s="110"/>
+      <c r="E128" s="89"/>
       <c r="F128" s="82"/>
       <c r="G128" s="20" t="s">
         <v>533</v>
@@ -13108,37 +13170,37 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="107"/>
-      <c r="C129" s="96" t="s">
+      <c r="B129" s="98"/>
+      <c r="C129" s="84" t="s">
         <v>530</v>
       </c>
-      <c r="D129" s="96"/>
-      <c r="E129" s="96"/>
-      <c r="F129" s="96"/>
-      <c r="G129" s="96"/>
-      <c r="H129" s="96"/>
-      <c r="I129" s="96"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="96"/>
-      <c r="L129" s="96"/>
-      <c r="M129" s="96"/>
-      <c r="N129" s="96"/>
-      <c r="O129" s="96"/>
-      <c r="P129" s="96"/>
-      <c r="Q129" s="97"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="84"/>
+      <c r="F129" s="84"/>
+      <c r="G129" s="84"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="84"/>
+      <c r="J129" s="84"/>
+      <c r="K129" s="84"/>
+      <c r="L129" s="84"/>
+      <c r="M129" s="84"/>
+      <c r="N129" s="84"/>
+      <c r="O129" s="84"/>
+      <c r="P129" s="84"/>
+      <c r="Q129" s="85"/>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="51">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="107"/>
-      <c r="C130" s="119"/>
-      <c r="D130" s="98" t="s">
+      <c r="B130" s="98"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E130" s="98"/>
-      <c r="F130" s="98"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
       <c r="G130" s="20" t="s">
         <v>518</v>
       </c>
@@ -13160,12 +13222,12 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="120"/>
-      <c r="D131" s="109" t="s">
+      <c r="B131" s="99"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E131" s="110"/>
+      <c r="E131" s="89"/>
       <c r="F131" s="82"/>
       <c r="G131" s="20" t="s">
         <v>533</v>
@@ -13183,6 +13245,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D102:D110"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D39:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D17:D28"/>
+    <mergeCell ref="C117:Q117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:B131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C7:C110"/>
+    <mergeCell ref="D74:D86"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C111:Q111"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="D73:Q73"/>
+    <mergeCell ref="D87:Q87"/>
+    <mergeCell ref="D90:Q90"/>
+    <mergeCell ref="D93:Q93"/>
+    <mergeCell ref="D95:Q95"/>
+    <mergeCell ref="D97:Q97"/>
+    <mergeCell ref="D101:Q101"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="D127:F127"/>
     <mergeCell ref="C129:Q129"/>
     <mergeCell ref="D130:F130"/>
@@ -13207,88 +13351,6 @@
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="C114:Q114"/>
     <mergeCell ref="D115:F115"/>
-    <mergeCell ref="C117:Q117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:B131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="C7:C110"/>
-    <mergeCell ref="D74:D86"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C111:Q111"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="D73:Q73"/>
-    <mergeCell ref="D87:Q87"/>
-    <mergeCell ref="D90:Q90"/>
-    <mergeCell ref="D93:Q93"/>
-    <mergeCell ref="D95:Q95"/>
-    <mergeCell ref="D97:Q97"/>
-    <mergeCell ref="D101:Q101"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D17:D28"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D39:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D102:D110"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E86"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H63:H66 H82:H86 H68:H72 H96 H112:H113 H74:H75 H1:H2 H132:H1048576 H7:H59">
@@ -13460,10 +13522,10 @@
       <c r="B2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="43" t="s">
         <v>369</v>
       </c>
@@ -13485,31 +13547,31 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="95" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="50">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
       <c r="G4" s="48" t="s">
         <v>537</v>
       </c>
@@ -13527,7 +13589,7 @@
         <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="46" t="s">
         <v>152</v>
       </c>
@@ -13551,13 +13613,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="98"/>
+      <c r="C6" s="93" t="s">
         <v>515</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="48" t="s">
         <v>517</v>
       </c>
@@ -13575,12 +13637,12 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="124"/>
       <c r="G7" s="49" t="s">
         <v>518</v>
@@ -13599,7 +13661,7 @@
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="121" t="s">
         <v>514</v>
       </c>
@@ -13617,13 +13679,13 @@
         <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="90" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="91"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="19" t="s">
         <v>243</v>
       </c>
@@ -13641,13 +13703,13 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="104" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="18" t="s">
         <v>134</v>
       </c>
@@ -13665,13 +13727,13 @@
         <f t="shared" ref="A11:A82" si="1">ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="83" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="18" t="s">
         <v>103</v>
       </c>
@@ -13689,15 +13751,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="104" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="18" t="s">
         <v>161</v>
       </c>
@@ -13713,13 +13775,13 @@
         <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104" t="s">
         <v>392</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="18" t="s">
         <v>161</v>
       </c>
@@ -13735,13 +13797,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="83" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="18" t="s">
         <v>134</v>
       </c>
@@ -13759,13 +13821,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="83" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="104" t="s">
         <v>288</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="19" t="s">
         <v>134</v>
       </c>
@@ -13783,13 +13845,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="83" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="104" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="19" t="s">
         <v>134</v>
       </c>
@@ -13807,13 +13869,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="83" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="19" t="s">
         <v>161</v>
       </c>
@@ -13833,13 +13895,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="83" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="19" t="s">
         <v>243</v>
       </c>
@@ -13855,15 +13917,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="83" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="104" t="s">
         <v>283</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="104" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="19" t="s">
         <v>374</v>
       </c>
@@ -13881,13 +13943,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="19" t="s">
         <v>134</v>
       </c>
@@ -13907,13 +13969,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104" t="s">
         <v>318</v>
       </c>
-      <c r="F21" s="83"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="19" t="s">
         <v>161</v>
       </c>
@@ -13931,13 +13993,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="19" t="s">
         <v>161</v>
       </c>
@@ -13955,13 +14017,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="19" t="s">
         <v>134</v>
       </c>
@@ -13979,10 +14041,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104" t="s">
         <v>327</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -14003,10 +14065,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="26" t="s">
         <v>328</v>
       </c>
@@ -14025,13 +14087,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="19" t="s">
         <v>161</v>
       </c>
@@ -14047,12 +14109,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="104" t="s">
         <v>379</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -14075,10 +14137,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="26" t="s">
         <v>328</v>
       </c>
@@ -14099,10 +14161,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104" t="s">
         <v>380</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -14125,10 +14187,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="26" t="s">
         <v>328</v>
       </c>
@@ -14149,15 +14211,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="111"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="104" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="83"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="19" t="s">
         <v>134</v>
       </c>
@@ -14173,15 +14235,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="83" t="s">
+      <c r="B32" s="98"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="104" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="83"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="19" t="s">
         <v>373</v>
       </c>
@@ -14195,13 +14257,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="F33" s="83"/>
+      <c r="F33" s="104"/>
       <c r="G33" s="19" t="s">
         <v>373</v>
       </c>
@@ -14215,13 +14277,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="F34" s="83"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="19" t="s">
         <v>373</v>
       </c>
@@ -14235,13 +14297,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83" t="s">
+      <c r="B35" s="98"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="F35" s="83"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="19" t="s">
         <v>373</v>
       </c>
@@ -14255,10 +14317,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="27"/>
@@ -14277,10 +14339,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="26" t="s">
         <v>345</v>
       </c>
@@ -14301,13 +14363,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83" t="s">
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="19" t="s">
         <v>373</v>
       </c>
@@ -14321,10 +14383,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83" t="s">
+      <c r="B39" s="98"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104" t="s">
         <v>344</v>
       </c>
       <c r="F39" s="27"/>
@@ -14343,10 +14405,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
       <c r="F40" s="26" t="s">
         <v>345</v>
       </c>
@@ -14365,12 +14427,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="83" t="s">
+      <c r="B41" s="98"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="104" t="s">
         <v>229</v>
       </c>
       <c r="F41" s="26" t="s">
@@ -14389,10 +14451,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="107"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="26" t="s">
         <v>354</v>
       </c>
@@ -14413,10 +14475,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="26" t="s">
         <v>19</v>
       </c>
@@ -14437,10 +14499,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83" t="s">
+      <c r="B44" s="98"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104" t="s">
         <v>339</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -14459,10 +14521,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
       <c r="F45" s="26" t="s">
         <v>384</v>
       </c>
@@ -14483,10 +14545,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83" t="s">
+      <c r="B46" s="98"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104" t="s">
         <v>340</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -14505,10 +14567,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
       <c r="F47" s="26" t="s">
         <v>384</v>
       </c>
@@ -14529,10 +14591,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104" t="s">
         <v>341</v>
       </c>
       <c r="F48" s="26" t="s">
@@ -14553,10 +14615,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
       <c r="F49" s="26" t="s">
         <v>385</v>
       </c>
@@ -14577,10 +14639,10 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
       <c r="F50" s="26" t="s">
         <v>384</v>
       </c>
@@ -14601,10 +14663,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="107"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
       <c r="F51" s="26" t="s">
         <v>393</v>
       </c>
@@ -14625,10 +14687,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
       <c r="F52" s="26" t="s">
         <v>394</v>
       </c>
@@ -14649,10 +14711,10 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
       <c r="F53" s="26" t="s">
         <v>395</v>
       </c>
@@ -14671,10 +14733,10 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="107"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
       <c r="F54" s="26" t="s">
         <v>396</v>
       </c>
@@ -14693,10 +14755,10 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="107"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104" t="s">
         <v>308</v>
       </c>
       <c r="F55" s="26" t="s">
@@ -14715,10 +14777,10 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
       <c r="F56" s="26" t="s">
         <v>384</v>
       </c>
@@ -14737,12 +14799,12 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="83" t="s">
+      <c r="B57" s="98"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="104" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="104" t="s">
         <v>420</v>
       </c>
       <c r="F57" s="26" t="s">
@@ -14765,10 +14827,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="26" t="s">
         <v>394</v>
       </c>
@@ -14789,10 +14851,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83" t="s">
+      <c r="B59" s="98"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104" t="s">
         <v>403</v>
       </c>
       <c r="F59" s="27"/>
@@ -14811,10 +14873,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="26" t="s">
         <v>415</v>
       </c>
@@ -14835,10 +14897,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="26" t="s">
         <v>416</v>
       </c>
@@ -14859,10 +14921,10 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
       <c r="F62" s="26" t="s">
         <v>419</v>
       </c>
@@ -14885,15 +14947,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="107"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="83" t="s">
+      <c r="B63" s="98"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="104" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="E63" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="F63" s="83"/>
+      <c r="F63" s="104"/>
       <c r="G63" s="19" t="s">
         <v>389</v>
       </c>
@@ -14911,10 +14973,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83" t="s">
+      <c r="B64" s="98"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104" t="s">
         <v>409</v>
       </c>
       <c r="F64" s="26" t="s">
@@ -14937,10 +14999,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
       <c r="F65" s="26" t="s">
         <v>411</v>
       </c>
@@ -14961,10 +15023,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83" t="s">
+      <c r="B66" s="98"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104" t="s">
         <v>414</v>
       </c>
       <c r="F66" s="26" t="s">
@@ -14987,10 +15049,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
       <c r="F67" s="26" t="s">
         <v>411</v>
       </c>
@@ -15011,9 +15073,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="83"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="104"/>
       <c r="E68" s="26" t="s">
         <v>470</v>
       </c>
@@ -15031,12 +15093,12 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="83" t="s">
+      <c r="B69" s="98"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="E69" s="83" t="s">
+      <c r="E69" s="104" t="s">
         <v>423</v>
       </c>
       <c r="F69" s="26" t="s">
@@ -15059,10 +15121,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="107"/>
-      <c r="C70" s="111"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
       <c r="F70" s="26" t="s">
         <v>291</v>
       </c>
@@ -15085,10 +15147,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="111"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
       <c r="F71" s="26" t="s">
         <v>287</v>
       </c>
@@ -15111,10 +15173,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="107"/>
-      <c r="C72" s="111"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
       <c r="F72" s="26" t="s">
         <v>292</v>
       </c>
@@ -15135,10 +15197,10 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
       <c r="F73" s="26" t="s">
         <v>440</v>
       </c>
@@ -15159,10 +15221,10 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="107"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
       <c r="F74" s="26" t="s">
         <v>293</v>
       </c>
@@ -15183,10 +15245,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="104"/>
       <c r="F75" s="26" t="s">
         <v>441</v>
       </c>
@@ -15207,10 +15269,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="107"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
       <c r="F76" s="26" t="s">
         <v>432</v>
       </c>
@@ -15233,10 +15295,10 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83" t="s">
+      <c r="B77" s="98"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104" t="s">
         <v>118</v>
       </c>
       <c r="F77" s="26" t="s">
@@ -15261,10 +15323,10 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
       <c r="F78" s="26" t="s">
         <v>435</v>
       </c>
@@ -15287,28 +15349,28 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="115" t="s">
+      <c r="B79" s="98"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="117"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="106"/>
+      <c r="I79" s="106"/>
+      <c r="J79" s="106"/>
+      <c r="K79" s="107"/>
     </row>
     <row r="80" spans="1:11" ht="40.5">
       <c r="A80" s="51">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="107"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="84" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="114" t="s">
         <v>485</v>
       </c>
       <c r="F80" s="41"/>
@@ -15329,10 +15391,10 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="85"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="115"/>
       <c r="F81" s="29" t="s">
         <v>487</v>
       </c>
@@ -15351,10 +15413,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82" s="107"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="83" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="26" t="s">
@@ -15375,10 +15437,10 @@
         <f t="shared" ref="A83:A88" si="2">ROW()-2</f>
         <v>81</v>
       </c>
-      <c r="B83" s="107"/>
-      <c r="C83" s="111"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="83"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="104"/>
       <c r="F83" s="26" t="s">
         <v>354</v>
       </c>
@@ -15401,10 +15463,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="83"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="104"/>
       <c r="F84" s="26" t="s">
         <v>19</v>
       </c>
@@ -15427,10 +15489,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="83" t="s">
+      <c r="B85" s="98"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="104" t="s">
         <v>316</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -15453,10 +15515,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="83"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="104"/>
       <c r="F86" s="26" t="s">
         <v>458</v>
       </c>
@@ -15477,10 +15539,10 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="111"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="83"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="104"/>
       <c r="F87" s="26" t="s">
         <v>415</v>
       </c>
@@ -15501,10 +15563,10 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="107"/>
-      <c r="C88" s="111"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="83" t="s">
+      <c r="B88" s="98"/>
+      <c r="C88" s="100"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="104" t="s">
         <v>456</v>
       </c>
       <c r="F88" s="26"/>
@@ -15523,10 +15585,10 @@
         <f t="shared" ref="A89:A137" si="3">ROW()-2</f>
         <v>87</v>
       </c>
-      <c r="B89" s="107"/>
-      <c r="C89" s="111"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="83"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="104"/>
       <c r="F89" s="26" t="s">
         <v>416</v>
       </c>
@@ -15547,10 +15609,10 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B90" s="107"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="83"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="26" t="s">
         <v>419</v>
       </c>
@@ -15573,10 +15635,10 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B91" s="107"/>
-      <c r="C91" s="111"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="92" t="s">
+      <c r="B91" s="98"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="120" t="s">
         <v>467</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -15601,10 +15663,10 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="111"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="92"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="120"/>
       <c r="F92" s="26" t="s">
         <v>381</v>
       </c>
@@ -15621,28 +15683,28 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="115" t="s">
+      <c r="B93" s="98"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="105" t="s">
         <v>510</v>
       </c>
-      <c r="E93" s="116"/>
-      <c r="F93" s="116"/>
-      <c r="G93" s="116"/>
-      <c r="H93" s="116"/>
-      <c r="I93" s="116"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="117"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="106"/>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="107"/>
     </row>
     <row r="94" spans="1:11" ht="27">
       <c r="A94" s="51">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="113"/>
-      <c r="E94" s="83" t="s">
+      <c r="B94" s="98"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F94" s="26" t="s">
@@ -15663,10 +15725,10 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="111"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="83"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="104"/>
       <c r="F95" s="26" t="s">
         <v>354</v>
       </c>
@@ -15689,28 +15751,28 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B96" s="107"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="115" t="s">
+      <c r="B96" s="98"/>
+      <c r="C96" s="100"/>
+      <c r="D96" s="105" t="s">
         <v>511</v>
       </c>
-      <c r="E96" s="116"/>
-      <c r="F96" s="116"/>
-      <c r="G96" s="116"/>
-      <c r="H96" s="116"/>
-      <c r="I96" s="116"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="117"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="106"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="I96" s="106"/>
+      <c r="J96" s="106"/>
+      <c r="K96" s="107"/>
     </row>
     <row r="97" spans="1:11" ht="27">
       <c r="A97" s="51">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B97" s="107"/>
-      <c r="C97" s="111"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="83" t="s">
+      <c r="B97" s="98"/>
+      <c r="C97" s="100"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="104" t="s">
         <v>352</v>
       </c>
       <c r="F97" s="26" t="s">
@@ -15731,10 +15793,10 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="111"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="83"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="104"/>
       <c r="F98" s="26" t="s">
         <v>354</v>
       </c>
@@ -15757,26 +15819,26 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="115" t="s">
+      <c r="B99" s="98"/>
+      <c r="C99" s="100"/>
+      <c r="D99" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="117"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="106"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="107"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="51">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B100" s="107"/>
-      <c r="C100" s="111"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="100"/>
       <c r="D100" s="42"/>
       <c r="E100" s="26" t="s">
         <v>352</v>
@@ -15799,26 +15861,26 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B101" s="107"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="115" t="s">
+      <c r="B101" s="98"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="116"/>
-      <c r="K101" s="117"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="107"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="51">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B102" s="107"/>
-      <c r="C102" s="111"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="100"/>
       <c r="D102" s="42"/>
       <c r="E102" s="26" t="s">
         <v>337</v>
@@ -15843,28 +15905,28 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="111"/>
-      <c r="D103" s="115" t="s">
+      <c r="B103" s="98"/>
+      <c r="C103" s="100"/>
+      <c r="D103" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="E103" s="116"/>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116"/>
-      <c r="H103" s="116"/>
-      <c r="I103" s="116"/>
-      <c r="J103" s="116"/>
-      <c r="K103" s="117"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="107"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="51">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="111"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="83" t="s">
+      <c r="B104" s="98"/>
+      <c r="C104" s="100"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="104" t="s">
         <v>423</v>
       </c>
       <c r="F104" s="26" t="s">
@@ -15885,10 +15947,10 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="107"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="83"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="104"/>
       <c r="F105" s="28" t="s">
         <v>479</v>
       </c>
@@ -15907,9 +15969,9 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="107"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="87"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="100"/>
+      <c r="D106" s="117"/>
       <c r="E106" s="26" t="s">
         <v>480</v>
       </c>
@@ -15931,31 +15993,31 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="107"/>
-      <c r="C107" s="111"/>
-      <c r="D107" s="115" t="s">
+      <c r="B107" s="98"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="E107" s="116"/>
-      <c r="F107" s="116"/>
-      <c r="G107" s="116"/>
-      <c r="H107" s="116"/>
-      <c r="I107" s="116"/>
-      <c r="J107" s="116"/>
-      <c r="K107" s="117"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="106"/>
+      <c r="G107" s="106"/>
+      <c r="H107" s="106"/>
+      <c r="I107" s="106"/>
+      <c r="J107" s="106"/>
+      <c r="K107" s="107"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="51">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="107"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="83" t="s">
+      <c r="B108" s="98"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="F108" s="83"/>
+      <c r="F108" s="104"/>
       <c r="G108" s="19" t="s">
         <v>134</v>
       </c>
@@ -15971,13 +16033,13 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="83" t="s">
+      <c r="B109" s="98"/>
+      <c r="C109" s="100"/>
+      <c r="D109" s="119"/>
+      <c r="E109" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="F109" s="83"/>
+      <c r="F109" s="104"/>
       <c r="G109" s="19" t="s">
         <v>134</v>
       </c>
@@ -15993,13 +16055,13 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="107"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="83" t="s">
+      <c r="B110" s="98"/>
+      <c r="C110" s="100"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="104" t="s">
         <v>474</v>
       </c>
-      <c r="F110" s="83"/>
+      <c r="F110" s="104"/>
       <c r="G110" s="19" t="s">
         <v>243</v>
       </c>
@@ -16013,13 +16075,13 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="107"/>
-      <c r="C111" s="111"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="83" t="s">
+      <c r="B111" s="98"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="104" t="s">
         <v>475</v>
       </c>
-      <c r="F111" s="83"/>
+      <c r="F111" s="104"/>
       <c r="G111" s="19" t="s">
         <v>243</v>
       </c>
@@ -16033,13 +16095,13 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="107"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="83" t="s">
+      <c r="B112" s="98"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="119"/>
+      <c r="E112" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="F112" s="83"/>
+      <c r="F112" s="104"/>
       <c r="G112" s="19" t="s">
         <v>243</v>
       </c>
@@ -16053,13 +16115,13 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="107"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="83" t="s">
+      <c r="B113" s="98"/>
+      <c r="C113" s="100"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="104" t="s">
         <v>477</v>
       </c>
-      <c r="F113" s="83"/>
+      <c r="F113" s="104"/>
       <c r="G113" s="19" t="s">
         <v>243</v>
       </c>
@@ -16073,13 +16135,13 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="107"/>
-      <c r="C114" s="111"/>
-      <c r="D114" s="89"/>
-      <c r="E114" s="90" t="s">
+      <c r="B114" s="98"/>
+      <c r="C114" s="100"/>
+      <c r="D114" s="119"/>
+      <c r="E114" s="108" t="s">
         <v>489</v>
       </c>
-      <c r="F114" s="91"/>
+      <c r="F114" s="110"/>
       <c r="G114" s="19" t="s">
         <v>134</v>
       </c>
@@ -16095,10 +16157,10 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="107"/>
-      <c r="C115" s="111"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="83" t="s">
+      <c r="B115" s="98"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="119"/>
+      <c r="E115" s="104" t="s">
         <v>406</v>
       </c>
       <c r="F115" s="26" t="s">
@@ -16121,10 +16183,10 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="107"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="83"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="104"/>
       <c r="F116" s="26" t="s">
         <v>77</v>
       </c>
@@ -16143,17 +16205,17 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="107"/>
-      <c r="C117" s="96" t="s">
+      <c r="B117" s="98"/>
+      <c r="C117" s="84" t="s">
         <v>525</v>
       </c>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="84"/>
+      <c r="G117" s="84"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="84"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11">
@@ -16161,13 +16223,13 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="107"/>
-      <c r="C118" s="119"/>
-      <c r="D118" s="98" t="s">
+      <c r="B118" s="98"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E118" s="98"/>
-      <c r="F118" s="98"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
       <c r="G118" s="20" t="s">
         <v>518</v>
       </c>
@@ -16183,12 +16245,12 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="107"/>
-      <c r="C119" s="120"/>
-      <c r="D119" s="109" t="s">
+      <c r="B119" s="98"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E119" s="110"/>
+      <c r="E119" s="89"/>
       <c r="F119" s="82"/>
       <c r="G119" s="20" t="s">
         <v>533</v>
@@ -16203,17 +16265,17 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="107"/>
-      <c r="C120" s="96" t="s">
+      <c r="B120" s="98"/>
+      <c r="C120" s="84" t="s">
         <v>524</v>
       </c>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="84"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11">
@@ -16221,13 +16283,13 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="107"/>
-      <c r="C121" s="119"/>
-      <c r="D121" s="98" t="s">
+      <c r="B121" s="98"/>
+      <c r="C121" s="86"/>
+      <c r="D121" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E121" s="98"/>
-      <c r="F121" s="98"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
       <c r="G121" s="20" t="s">
         <v>518</v>
       </c>
@@ -16243,12 +16305,12 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="120"/>
-      <c r="D122" s="109" t="s">
+      <c r="B122" s="98"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E122" s="110"/>
+      <c r="E122" s="89"/>
       <c r="F122" s="82"/>
       <c r="G122" s="20"/>
       <c r="H122" s="38"/>
@@ -16261,17 +16323,17 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="96" t="s">
+      <c r="B123" s="98"/>
+      <c r="C123" s="84" t="s">
         <v>526</v>
       </c>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
+      <c r="D123" s="84"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
+      <c r="H123" s="84"/>
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11">
@@ -16279,13 +16341,13 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="107"/>
-      <c r="C124" s="119"/>
-      <c r="D124" s="98" t="s">
+      <c r="B124" s="98"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E124" s="98"/>
-      <c r="F124" s="98"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
       <c r="G124" s="20" t="s">
         <v>531</v>
       </c>
@@ -16301,12 +16363,12 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="107"/>
-      <c r="C125" s="120"/>
-      <c r="D125" s="109" t="s">
+      <c r="B125" s="98"/>
+      <c r="C125" s="87"/>
+      <c r="D125" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E125" s="110"/>
+      <c r="E125" s="89"/>
       <c r="F125" s="82"/>
       <c r="G125" s="20" t="s">
         <v>533</v>
@@ -16321,17 +16383,17 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="107"/>
-      <c r="C126" s="96" t="s">
+      <c r="B126" s="98"/>
+      <c r="C126" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="D126" s="96"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="84"/>
+      <c r="F126" s="84"/>
+      <c r="G126" s="84"/>
+      <c r="H126" s="84"/>
+      <c r="I126" s="84"/>
+      <c r="J126" s="84"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11">
@@ -16339,13 +16401,13 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="107"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="98" t="s">
+      <c r="B127" s="98"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="98"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
       <c r="G127" s="20" t="s">
         <v>518</v>
       </c>
@@ -16361,12 +16423,12 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="120"/>
-      <c r="D128" s="109" t="s">
+      <c r="B128" s="98"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E128" s="110"/>
+      <c r="E128" s="89"/>
       <c r="F128" s="82"/>
       <c r="G128" s="20" t="s">
         <v>533</v>
@@ -16381,17 +16443,17 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="107"/>
-      <c r="C129" s="96" t="s">
+      <c r="B129" s="98"/>
+      <c r="C129" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="D129" s="96"/>
-      <c r="E129" s="96"/>
-      <c r="F129" s="96"/>
-      <c r="G129" s="96"/>
-      <c r="H129" s="96"/>
-      <c r="I129" s="96"/>
-      <c r="J129" s="96"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="84"/>
+      <c r="F129" s="84"/>
+      <c r="G129" s="84"/>
+      <c r="H129" s="84"/>
+      <c r="I129" s="84"/>
+      <c r="J129" s="84"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11">
@@ -16399,13 +16461,13 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="107"/>
-      <c r="C130" s="119"/>
-      <c r="D130" s="98" t="s">
+      <c r="B130" s="98"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E130" s="98"/>
-      <c r="F130" s="98"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
       <c r="G130" s="20" t="s">
         <v>518</v>
       </c>
@@ -16421,12 +16483,12 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="107"/>
-      <c r="C131" s="120"/>
-      <c r="D131" s="109" t="s">
+      <c r="B131" s="98"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E131" s="110"/>
+      <c r="E131" s="89"/>
       <c r="F131" s="82"/>
       <c r="G131" s="20" t="s">
         <v>533</v>
@@ -16441,17 +16503,17 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B132" s="107"/>
-      <c r="C132" s="96" t="s">
+      <c r="B132" s="98"/>
+      <c r="C132" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="D132" s="96"/>
-      <c r="E132" s="96"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="96"/>
-      <c r="H132" s="96"/>
-      <c r="I132" s="96"/>
-      <c r="J132" s="96"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="84"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="84"/>
+      <c r="H132" s="84"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11">
@@ -16459,13 +16521,13 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="B133" s="107"/>
-      <c r="C133" s="119"/>
-      <c r="D133" s="98" t="s">
+      <c r="B133" s="98"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E133" s="98"/>
-      <c r="F133" s="98"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
       <c r="G133" s="20" t="s">
         <v>518</v>
       </c>
@@ -16481,12 +16543,12 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="B134" s="107"/>
-      <c r="C134" s="120"/>
-      <c r="D134" s="109" t="s">
+      <c r="B134" s="98"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E134" s="110"/>
+      <c r="E134" s="89"/>
       <c r="F134" s="82"/>
       <c r="G134" s="20" t="s">
         <v>533</v>
@@ -16501,17 +16563,17 @@
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B135" s="107"/>
-      <c r="C135" s="96" t="s">
+      <c r="B135" s="98"/>
+      <c r="C135" s="84" t="s">
         <v>530</v>
       </c>
-      <c r="D135" s="96"/>
-      <c r="E135" s="96"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="96"/>
-      <c r="H135" s="96"/>
-      <c r="I135" s="96"/>
-      <c r="J135" s="96"/>
+      <c r="D135" s="84"/>
+      <c r="E135" s="84"/>
+      <c r="F135" s="84"/>
+      <c r="G135" s="84"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="84"/>
+      <c r="J135" s="84"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11">
@@ -16519,13 +16581,13 @@
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B136" s="107"/>
-      <c r="C136" s="119"/>
-      <c r="D136" s="98" t="s">
+      <c r="B136" s="98"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="E136" s="98"/>
-      <c r="F136" s="98"/>
+      <c r="E136" s="83"/>
+      <c r="F136" s="83"/>
       <c r="G136" s="20" t="s">
         <v>518</v>
       </c>
@@ -16541,12 +16603,12 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B137" s="108"/>
-      <c r="C137" s="120"/>
-      <c r="D137" s="109" t="s">
+      <c r="B137" s="99"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="E137" s="110"/>
+      <c r="E137" s="89"/>
       <c r="F137" s="82"/>
       <c r="G137" s="20" t="s">
         <v>533</v>
@@ -16558,6 +16620,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:B137"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:C116"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D56"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="D79:K79"/>
@@ -16582,93 +16731,6 @@
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="C123:J123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D69:D78"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D56"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:B137"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:C116"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H69:H72 H88:H92 H74:H78 H102 H118:H119 H80:H81 H1:H2 H9:H65 H138:H1048576">
@@ -17291,10 +17353,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="98"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="58" t="s">
         <v>77</v>
       </c>
@@ -17323,8 +17385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/docs/excel/画面設計.xlsx
+++ b/docs/excel/画面設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="13860" windowHeight="15750" tabRatio="952" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="【画面一覧】" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="12.画像取得" sheetId="16" r:id="rId14"/>
     <sheet name="13.画像一覧" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -7170,47 +7170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7218,7 +7179,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7251,12 +7221,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7269,6 +7233,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7278,14 +7245,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8264,7 +8264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -9290,10 +9290,10 @@
       <c r="B2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="43" t="s">
         <v>363</v>
       </c>
@@ -9333,37 +9333,37 @@
         <f t="shared" ref="A3:A8" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="101" t="s">
         <v>515</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="113"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="48" t="s">
         <v>511</v>
       </c>
@@ -9385,7 +9385,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="46" t="s">
         <v>510</v>
       </c>
@@ -9413,37 +9413,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="104"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17" ht="27">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="96" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="97"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="19" t="s">
         <v>237</v>
       </c>
@@ -9467,13 +9467,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="89" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="18" t="s">
         <v>352</v>
       </c>
@@ -9511,13 +9511,13 @@
         <f t="shared" ref="A9:A76" si="1">ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="89" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="18" t="s">
         <v>356</v>
       </c>
@@ -9555,15 +9555,15 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="89" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="110" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="18" t="s">
         <v>361</v>
       </c>
@@ -9595,13 +9595,13 @@
         <f>ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="18" t="s">
         <v>361</v>
       </c>
@@ -9633,13 +9633,13 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="89" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="18" t="s">
         <v>352</v>
       </c>
@@ -9677,13 +9677,13 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="89" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="17" t="s">
         <v>352</v>
       </c>
@@ -9711,13 +9711,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="89" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="19" t="s">
         <v>352</v>
       </c>
@@ -9745,13 +9745,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="89" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="17" t="s">
         <v>361</v>
       </c>
@@ -9791,13 +9791,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="89" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="17" t="s">
         <v>366</v>
       </c>
@@ -9823,15 +9823,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="100" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="117" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="17" t="s">
         <v>368</v>
       </c>
@@ -9869,13 +9869,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="89" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="17" t="s">
         <v>352</v>
       </c>
@@ -9909,13 +9909,13 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="89" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="17" t="s">
         <v>361</v>
       </c>
@@ -9949,13 +9949,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="17" t="s">
         <v>361</v>
       </c>
@@ -9993,13 +9993,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="89" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="89"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="17" t="s">
         <v>352</v>
       </c>
@@ -10037,10 +10037,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="89" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="110" t="s">
         <v>321</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -10067,10 +10067,10 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="89"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="26" t="s">
         <v>322</v>
       </c>
@@ -10095,13 +10095,13 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="89" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="F24" s="89"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="17" t="s">
         <v>361</v>
       </c>
@@ -10123,10 +10123,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="89" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="110" t="s">
         <v>328</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -10155,10 +10155,10 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="89"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="26" t="s">
         <v>590</v>
       </c>
@@ -10185,10 +10185,10 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="89"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="110"/>
       <c r="F27" s="26" t="s">
         <v>591</v>
       </c>
@@ -10215,10 +10215,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="89"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="26" t="s">
         <v>592</v>
       </c>
@@ -10245,15 +10245,15 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="106"/>
       <c r="D29" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="17" t="s">
         <v>352</v>
       </c>
@@ -10275,15 +10275,15 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="89" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="F30" s="89"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="17" t="s">
         <v>380</v>
       </c>
@@ -10303,13 +10303,13 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110" t="s">
         <v>343</v>
       </c>
-      <c r="F31" s="89"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="19" t="s">
         <v>367</v>
       </c>
@@ -10329,13 +10329,13 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89" t="s">
+      <c r="B32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110" t="s">
         <v>344</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="19" t="s">
         <v>367</v>
       </c>
@@ -10355,13 +10355,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89" t="s">
+      <c r="B33" s="104"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="F33" s="89"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="19" t="s">
         <v>367</v>
       </c>
@@ -10381,10 +10381,10 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="96" t="s">
+      <c r="B34" s="104"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="114" t="s">
         <v>336</v>
       </c>
       <c r="F34" s="64"/>
@@ -10409,10 +10409,10 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
       <c r="F35" s="26" t="s">
         <v>339</v>
       </c>
@@ -10439,13 +10439,13 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110" t="s">
         <v>337</v>
       </c>
-      <c r="F36" s="89"/>
+      <c r="F36" s="110"/>
       <c r="G36" s="19" t="s">
         <v>367</v>
       </c>
@@ -10465,10 +10465,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="96" t="s">
+      <c r="B37" s="104"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="114" t="s">
         <v>338</v>
       </c>
       <c r="F37" s="64"/>
@@ -10493,10 +10493,10 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
       <c r="F38" s="26" t="s">
         <v>339</v>
       </c>
@@ -10521,12 +10521,12 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="99" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="120" t="s">
         <v>346</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="120" t="s">
         <v>332</v>
       </c>
       <c r="F39" s="65" t="s">
@@ -10551,10 +10551,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
       <c r="F40" s="65" t="s">
         <v>348</v>
       </c>
@@ -10581,10 +10581,10 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
       <c r="F41" s="65" t="s">
         <v>349</v>
       </c>
@@ -10611,10 +10611,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99" t="s">
+      <c r="B42" s="104"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120" t="s">
         <v>343</v>
       </c>
       <c r="F42" s="65" t="s">
@@ -10639,10 +10639,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
       <c r="F43" s="65" t="s">
         <v>378</v>
       </c>
@@ -10669,10 +10669,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99" t="s">
+      <c r="B44" s="104"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120" t="s">
         <v>334</v>
       </c>
       <c r="F44" s="65" t="s">
@@ -10697,10 +10697,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
       <c r="F45" s="65" t="s">
         <v>378</v>
       </c>
@@ -10727,10 +10727,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99" t="s">
+      <c r="B46" s="104"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120" t="s">
         <v>335</v>
       </c>
       <c r="F46" s="65" t="s">
@@ -10757,10 +10757,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
       <c r="F47" s="65" t="s">
         <v>379</v>
       </c>
@@ -10787,10 +10787,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
       <c r="F48" s="65" t="s">
         <v>378</v>
       </c>
@@ -10817,10 +10817,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
       <c r="F49" s="65" t="s">
         <v>387</v>
       </c>
@@ -10847,10 +10847,10 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
       <c r="F50" s="65" t="s">
         <v>388</v>
       </c>
@@ -10877,10 +10877,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="114"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
       <c r="F51" s="65" t="s">
         <v>389</v>
       </c>
@@ -10905,10 +10905,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
       <c r="F52" s="65" t="s">
         <v>390</v>
       </c>
@@ -10933,10 +10933,10 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="114"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99" t="s">
+      <c r="B53" s="104"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120" t="s">
         <v>337</v>
       </c>
       <c r="F53" s="65" t="s">
@@ -10961,10 +10961,10 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="114"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
       <c r="F54" s="65" t="s">
         <v>378</v>
       </c>
@@ -10989,12 +10989,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="114"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="99" t="s">
+      <c r="B55" s="104"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="120" t="s">
         <v>399</v>
       </c>
-      <c r="E55" s="99" t="s">
+      <c r="E55" s="120" t="s">
         <v>414</v>
       </c>
       <c r="F55" s="65" t="s">
@@ -11023,10 +11023,10 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
       <c r="F56" s="65" t="s">
         <v>388</v>
       </c>
@@ -11053,15 +11053,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="89" t="s">
+      <c r="B57" s="104"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="E57" s="89" t="s">
+      <c r="E57" s="110" t="s">
         <v>401</v>
       </c>
-      <c r="F57" s="89"/>
+      <c r="F57" s="110"/>
       <c r="G57" s="17" t="s">
         <v>383</v>
       </c>
@@ -11085,10 +11085,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89" t="s">
+      <c r="B58" s="104"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110" t="s">
         <v>403</v>
       </c>
       <c r="F58" s="26" t="s">
@@ -11117,10 +11117,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="26" t="s">
         <v>405</v>
       </c>
@@ -11147,10 +11147,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110" t="s">
         <v>408</v>
       </c>
       <c r="F60" s="26" t="s">
@@ -11179,10 +11179,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
       <c r="F61" s="26" t="s">
         <v>405</v>
       </c>
@@ -11206,9 +11206,9 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="51"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="89"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="110"/>
       <c r="E62" s="26" t="s">
         <v>464</v>
       </c>
@@ -11234,12 +11234,12 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="114"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="89" t="s">
+      <c r="B63" s="104"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="E63" s="89" t="s">
+      <c r="E63" s="110" t="s">
         <v>417</v>
       </c>
       <c r="F63" s="26" t="s">
@@ -11268,10 +11268,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110"/>
       <c r="F64" s="26" t="s">
         <v>421</v>
       </c>
@@ -11304,10 +11304,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
       <c r="F65" s="26" t="s">
         <v>422</v>
       </c>
@@ -11340,10 +11340,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
       <c r="F66" s="26" t="s">
         <v>423</v>
       </c>
@@ -11370,10 +11370,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
       <c r="F67" s="26" t="s">
         <v>458</v>
       </c>
@@ -11400,10 +11400,10 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
       <c r="F68" s="26" t="s">
         <v>424</v>
       </c>
@@ -11430,10 +11430,10 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="118"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
       <c r="F69" s="26" t="s">
         <v>459</v>
       </c>
@@ -11460,10 +11460,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
       <c r="F70" s="26" t="s">
         <v>426</v>
       </c>
@@ -11494,10 +11494,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="114"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89" t="s">
+      <c r="B71" s="104"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110" t="s">
         <v>428</v>
       </c>
       <c r="F71" s="26" t="s">
@@ -11530,10 +11530,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="114"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
       <c r="F72" s="26" t="s">
         <v>429</v>
       </c>
@@ -11564,34 +11564,34 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="122" t="s">
+      <c r="B73" s="104"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="123"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="123"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="123"/>
-      <c r="N73" s="123"/>
-      <c r="O73" s="123"/>
-      <c r="P73" s="123"/>
-      <c r="Q73" s="124"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="113"/>
     </row>
     <row r="74" spans="1:17" ht="40.5">
       <c r="A74" s="51">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="114"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="90" t="s">
+      <c r="B74" s="104"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="121" t="s">
         <v>479</v>
       </c>
       <c r="F74" s="41"/>
@@ -11618,10 +11618,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="114"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="91"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="122"/>
       <c r="F75" s="29" t="s">
         <v>481</v>
       </c>
@@ -11646,10 +11646,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="114"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="89" t="s">
+      <c r="B76" s="104"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F76" s="26" t="s">
@@ -11676,10 +11676,10 @@
         <f t="shared" ref="A77:A103" si="2">ROW()-2</f>
         <v>75</v>
       </c>
-      <c r="B77" s="114"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="89"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="110"/>
       <c r="F77" s="26" t="s">
         <v>348</v>
       </c>
@@ -11708,10 +11708,10 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="89"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="110"/>
       <c r="F78" s="26" t="s">
         <v>349</v>
       </c>
@@ -11740,10 +11740,10 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="89" t="s">
+      <c r="B79" s="104"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="110" t="s">
         <v>310</v>
       </c>
       <c r="F79" s="26" t="s">
@@ -11772,10 +11772,10 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="114"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="89"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="110"/>
       <c r="F80" s="26" t="s">
         <v>452</v>
       </c>
@@ -11802,10 +11802,10 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="114"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="89"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="110"/>
       <c r="F81" s="26" t="s">
         <v>409</v>
       </c>
@@ -11832,10 +11832,10 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="118"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="96" t="s">
+      <c r="B82" s="104"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="114" t="s">
         <v>450</v>
       </c>
       <c r="F82" s="63"/>
@@ -11860,10 +11860,10 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="89"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="110"/>
       <c r="F83" s="26" t="s">
         <v>410</v>
       </c>
@@ -11890,10 +11890,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="89"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="110"/>
       <c r="F84" s="26" t="s">
         <v>413</v>
       </c>
@@ -11922,10 +11922,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="98" t="s">
+      <c r="B85" s="104"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="127" t="s">
         <v>461</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -11956,10 +11956,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="98"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="127"/>
       <c r="F86" s="26" t="s">
         <v>375</v>
       </c>
@@ -11982,34 +11982,34 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="122" t="s">
+      <c r="B87" s="104"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="111" t="s">
         <v>504</v>
       </c>
-      <c r="E87" s="123"/>
-      <c r="F87" s="123"/>
-      <c r="G87" s="123"/>
-      <c r="H87" s="123"/>
-      <c r="I87" s="123"/>
-      <c r="J87" s="123"/>
-      <c r="K87" s="123"/>
-      <c r="L87" s="123"/>
-      <c r="M87" s="123"/>
-      <c r="N87" s="123"/>
-      <c r="O87" s="123"/>
-      <c r="P87" s="123"/>
-      <c r="Q87" s="124"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="113"/>
     </row>
     <row r="88" spans="1:17" ht="27">
       <c r="A88" s="51">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="89" t="s">
+      <c r="B88" s="104"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F88" s="26" t="s">
@@ -12036,10 +12036,10 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="114"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="121"/>
-      <c r="E89" s="89"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="109"/>
+      <c r="E89" s="110"/>
       <c r="F89" s="26" t="s">
         <v>348</v>
       </c>
@@ -12068,34 +12068,34 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="122" t="s">
+      <c r="B90" s="104"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="E90" s="123"/>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="123"/>
-      <c r="K90" s="123"/>
-      <c r="L90" s="123"/>
-      <c r="M90" s="123"/>
-      <c r="N90" s="123"/>
-      <c r="O90" s="123"/>
-      <c r="P90" s="123"/>
-      <c r="Q90" s="124"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="112"/>
+      <c r="M90" s="112"/>
+      <c r="N90" s="112"/>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112"/>
+      <c r="Q90" s="113"/>
     </row>
     <row r="91" spans="1:17" ht="27">
       <c r="A91" s="51">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="89" t="s">
+      <c r="B91" s="104"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="123"/>
+      <c r="E91" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -12122,10 +12122,10 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="114"/>
-      <c r="C92" s="118"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="89"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="110"/>
       <c r="F92" s="26" t="s">
         <v>348</v>
       </c>
@@ -12154,32 +12154,32 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="118"/>
-      <c r="D93" s="122" t="s">
+      <c r="B93" s="104"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="123"/>
-      <c r="L93" s="123"/>
-      <c r="M93" s="123"/>
-      <c r="N93" s="123"/>
-      <c r="O93" s="123"/>
-      <c r="P93" s="123"/>
-      <c r="Q93" s="124"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="112"/>
+      <c r="G93" s="112"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="112"/>
+      <c r="L93" s="112"/>
+      <c r="M93" s="112"/>
+      <c r="N93" s="112"/>
+      <c r="O93" s="112"/>
+      <c r="P93" s="112"/>
+      <c r="Q93" s="113"/>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="51">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="118"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="106"/>
       <c r="D94" s="42"/>
       <c r="E94" s="26" t="s">
         <v>346</v>
@@ -12208,32 +12208,32 @@
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="118"/>
-      <c r="D95" s="122" t="s">
+      <c r="B95" s="104"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="123"/>
-      <c r="F95" s="123"/>
-      <c r="G95" s="123"/>
-      <c r="H95" s="123"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="123"/>
-      <c r="O95" s="123"/>
-      <c r="P95" s="123"/>
-      <c r="Q95" s="124"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="112"/>
+      <c r="G95" s="112"/>
+      <c r="H95" s="112"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="112"/>
+      <c r="K95" s="112"/>
+      <c r="L95" s="112"/>
+      <c r="M95" s="112"/>
+      <c r="N95" s="112"/>
+      <c r="O95" s="112"/>
+      <c r="P95" s="112"/>
+      <c r="Q95" s="113"/>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="51">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="118"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="106"/>
       <c r="D96" s="42"/>
       <c r="E96" s="26" t="s">
         <v>331</v>
@@ -12264,34 +12264,34 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="114"/>
-      <c r="C97" s="118"/>
-      <c r="D97" s="122" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="123"/>
-      <c r="I97" s="123"/>
-      <c r="J97" s="123"/>
-      <c r="K97" s="123"/>
-      <c r="L97" s="123"/>
-      <c r="M97" s="123"/>
-      <c r="N97" s="123"/>
-      <c r="O97" s="123"/>
-      <c r="P97" s="123"/>
-      <c r="Q97" s="124"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="112"/>
+      <c r="G97" s="112"/>
+      <c r="H97" s="112"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
+      <c r="L97" s="112"/>
+      <c r="M97" s="112"/>
+      <c r="N97" s="112"/>
+      <c r="O97" s="112"/>
+      <c r="P97" s="112"/>
+      <c r="Q97" s="113"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="51">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="118"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="89" t="s">
+      <c r="B98" s="104"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="110" t="s">
         <v>417</v>
       </c>
       <c r="F98" s="26" t="s">
@@ -12318,10 +12318,10 @@
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="114"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="93"/>
-      <c r="E99" s="89"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="110"/>
       <c r="F99" s="28" t="s">
         <v>473</v>
       </c>
@@ -12346,9 +12346,9 @@
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="114"/>
-      <c r="C100" s="118"/>
-      <c r="D100" s="93"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="124"/>
       <c r="E100" s="26" t="s">
         <v>474</v>
       </c>
@@ -12376,37 +12376,37 @@
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="114"/>
-      <c r="C101" s="118"/>
-      <c r="D101" s="122" t="s">
+      <c r="B101" s="104"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123"/>
-      <c r="K101" s="123"/>
-      <c r="L101" s="123"/>
-      <c r="M101" s="123"/>
-      <c r="N101" s="123"/>
-      <c r="O101" s="123"/>
-      <c r="P101" s="123"/>
-      <c r="Q101" s="124"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="112"/>
+      <c r="G101" s="112"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="112"/>
+      <c r="K101" s="112"/>
+      <c r="L101" s="112"/>
+      <c r="M101" s="112"/>
+      <c r="N101" s="112"/>
+      <c r="O101" s="112"/>
+      <c r="P101" s="112"/>
+      <c r="Q101" s="113"/>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="51">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="114"/>
-      <c r="C102" s="118"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="89" t="s">
+      <c r="B102" s="104"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="F102" s="89"/>
+      <c r="F102" s="110"/>
       <c r="G102" s="19" t="s">
         <v>352</v>
       </c>
@@ -12428,13 +12428,13 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B103" s="114"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="89" t="s">
+      <c r="B103" s="104"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="F103" s="89"/>
+      <c r="F103" s="110"/>
       <c r="G103" s="19" t="s">
         <v>352</v>
       </c>
@@ -12456,13 +12456,13 @@
         <f t="shared" ref="A104:A131" si="3">ROW()-2</f>
         <v>102</v>
       </c>
-      <c r="B104" s="114"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="95"/>
-      <c r="E104" s="89" t="s">
+      <c r="B104" s="104"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="110" t="s">
         <v>468</v>
       </c>
-      <c r="F104" s="89"/>
+      <c r="F104" s="110"/>
       <c r="G104" s="19" t="s">
         <v>366</v>
       </c>
@@ -12482,13 +12482,13 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="114"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="95"/>
-      <c r="E105" s="89" t="s">
+      <c r="B105" s="104"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="126"/>
+      <c r="E105" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="F105" s="89"/>
+      <c r="F105" s="110"/>
       <c r="G105" s="19" t="s">
         <v>366</v>
       </c>
@@ -12508,13 +12508,13 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="114"/>
-      <c r="C106" s="118"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="89" t="s">
+      <c r="B106" s="104"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="F106" s="89"/>
+      <c r="F106" s="110"/>
       <c r="G106" s="19" t="s">
         <v>366</v>
       </c>
@@ -12534,13 +12534,13 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="114"/>
-      <c r="C107" s="118"/>
-      <c r="D107" s="95"/>
-      <c r="E107" s="89" t="s">
+      <c r="B107" s="104"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="F107" s="89"/>
+      <c r="F107" s="110"/>
       <c r="G107" s="19" t="s">
         <v>366</v>
       </c>
@@ -12560,13 +12560,13 @@
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="114"/>
-      <c r="C108" s="118"/>
-      <c r="D108" s="95"/>
-      <c r="E108" s="96" t="s">
+      <c r="B108" s="104"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="126"/>
+      <c r="E108" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="F108" s="97"/>
+      <c r="F108" s="116"/>
       <c r="G108" s="19" t="s">
         <v>352</v>
       </c>
@@ -12588,10 +12588,10 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="114"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="89" t="s">
+      <c r="B109" s="104"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="110" t="s">
         <v>400</v>
       </c>
       <c r="F109" s="26" t="s">
@@ -12620,10 +12620,10 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="114"/>
-      <c r="C110" s="119"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="89"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="107"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="110"/>
       <c r="F110" s="26" t="s">
         <v>477</v>
       </c>
@@ -12648,37 +12648,37 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="114"/>
-      <c r="C111" s="103" t="s">
+      <c r="B111" s="104"/>
+      <c r="C111" s="90" t="s">
         <v>519</v>
       </c>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
-      <c r="L111" s="103"/>
-      <c r="M111" s="103"/>
-      <c r="N111" s="103"/>
-      <c r="O111" s="103"/>
-      <c r="P111" s="103"/>
-      <c r="Q111" s="104"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="90"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="90"/>
+      <c r="L111" s="90"/>
+      <c r="M111" s="90"/>
+      <c r="N111" s="90"/>
+      <c r="O111" s="90"/>
+      <c r="P111" s="90"/>
+      <c r="Q111" s="91"/>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="51">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="114"/>
-      <c r="C112" s="126"/>
-      <c r="D112" s="105" t="s">
+      <c r="B112" s="104"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
       <c r="G112" s="20" t="s">
         <v>512</v>
       </c>
@@ -12700,12 +12700,12 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="114"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="116" t="s">
+      <c r="B113" s="104"/>
+      <c r="C113" s="93"/>
+      <c r="D113" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E113" s="117"/>
+      <c r="E113" s="95"/>
       <c r="F113" s="88"/>
       <c r="G113" s="20" t="s">
         <v>527</v>
@@ -12726,37 +12726,37 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="114"/>
-      <c r="C114" s="103" t="s">
+      <c r="B114" s="104"/>
+      <c r="C114" s="90" t="s">
         <v>518</v>
       </c>
-      <c r="D114" s="103"/>
-      <c r="E114" s="103"/>
-      <c r="F114" s="103"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="103"/>
-      <c r="P114" s="103"/>
-      <c r="Q114" s="104"/>
+      <c r="D114" s="90"/>
+      <c r="E114" s="90"/>
+      <c r="F114" s="90"/>
+      <c r="G114" s="90"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+      <c r="J114" s="90"/>
+      <c r="K114" s="90"/>
+      <c r="L114" s="90"/>
+      <c r="M114" s="90"/>
+      <c r="N114" s="90"/>
+      <c r="O114" s="90"/>
+      <c r="P114" s="90"/>
+      <c r="Q114" s="91"/>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="51">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="114"/>
-      <c r="C115" s="126"/>
-      <c r="D115" s="105" t="s">
+      <c r="B115" s="104"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
       <c r="G115" s="20" t="s">
         <v>512</v>
       </c>
@@ -12778,12 +12778,12 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="114"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="116" t="s">
+      <c r="B116" s="104"/>
+      <c r="C116" s="93"/>
+      <c r="D116" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E116" s="117"/>
+      <c r="E116" s="95"/>
       <c r="F116" s="88"/>
       <c r="G116" s="20"/>
       <c r="H116" s="38"/>
@@ -12802,37 +12802,37 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="114"/>
-      <c r="C117" s="103" t="s">
+      <c r="B117" s="104"/>
+      <c r="C117" s="90" t="s">
         <v>520</v>
       </c>
-      <c r="D117" s="103"/>
-      <c r="E117" s="103"/>
-      <c r="F117" s="103"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="103"/>
-      <c r="L117" s="103"/>
-      <c r="M117" s="103"/>
-      <c r="N117" s="103"/>
-      <c r="O117" s="103"/>
-      <c r="P117" s="103"/>
-      <c r="Q117" s="104"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="90"/>
+      <c r="J117" s="90"/>
+      <c r="K117" s="90"/>
+      <c r="L117" s="90"/>
+      <c r="M117" s="90"/>
+      <c r="N117" s="90"/>
+      <c r="O117" s="90"/>
+      <c r="P117" s="90"/>
+      <c r="Q117" s="91"/>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="51">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="114"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="105" t="s">
+      <c r="B118" s="104"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="89"/>
       <c r="G118" s="20" t="s">
         <v>525</v>
       </c>
@@ -12854,12 +12854,12 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="114"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="116" t="s">
+      <c r="B119" s="104"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E119" s="117"/>
+      <c r="E119" s="95"/>
       <c r="F119" s="88"/>
       <c r="G119" s="20" t="s">
         <v>527</v>
@@ -12880,37 +12880,37 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="114"/>
-      <c r="C120" s="103" t="s">
+      <c r="B120" s="104"/>
+      <c r="C120" s="90" t="s">
         <v>521</v>
       </c>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="103"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
-      <c r="K120" s="103"/>
-      <c r="L120" s="103"/>
-      <c r="M120" s="103"/>
-      <c r="N120" s="103"/>
-      <c r="O120" s="103"/>
-      <c r="P120" s="103"/>
-      <c r="Q120" s="104"/>
+      <c r="D120" s="90"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="90"/>
+      <c r="J120" s="90"/>
+      <c r="K120" s="90"/>
+      <c r="L120" s="90"/>
+      <c r="M120" s="90"/>
+      <c r="N120" s="90"/>
+      <c r="O120" s="90"/>
+      <c r="P120" s="90"/>
+      <c r="Q120" s="91"/>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="51">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="114"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="105" t="s">
+      <c r="B121" s="104"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="20" t="s">
         <v>512</v>
       </c>
@@ -12932,12 +12932,12 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="114"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="116" t="s">
+      <c r="B122" s="104"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E122" s="117"/>
+      <c r="E122" s="95"/>
       <c r="F122" s="88"/>
       <c r="G122" s="20" t="s">
         <v>527</v>
@@ -12958,37 +12958,37 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="114"/>
-      <c r="C123" s="103" t="s">
+      <c r="B123" s="104"/>
+      <c r="C123" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="D123" s="103"/>
-      <c r="E123" s="103"/>
-      <c r="F123" s="103"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="103"/>
-      <c r="K123" s="103"/>
-      <c r="L123" s="103"/>
-      <c r="M123" s="103"/>
-      <c r="N123" s="103"/>
-      <c r="O123" s="103"/>
-      <c r="P123" s="103"/>
-      <c r="Q123" s="104"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
+      <c r="K123" s="90"/>
+      <c r="L123" s="90"/>
+      <c r="M123" s="90"/>
+      <c r="N123" s="90"/>
+      <c r="O123" s="90"/>
+      <c r="P123" s="90"/>
+      <c r="Q123" s="91"/>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="51">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="114"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="105" t="s">
+      <c r="B124" s="104"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
       <c r="G124" s="20" t="s">
         <v>512</v>
       </c>
@@ -13010,12 +13010,12 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="114"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="116" t="s">
+      <c r="B125" s="104"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E125" s="117"/>
+      <c r="E125" s="95"/>
       <c r="F125" s="88"/>
       <c r="G125" s="20" t="s">
         <v>527</v>
@@ -13036,37 +13036,37 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="114"/>
-      <c r="C126" s="103" t="s">
+      <c r="B126" s="104"/>
+      <c r="C126" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="D126" s="103"/>
-      <c r="E126" s="103"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="103"/>
-      <c r="K126" s="103"/>
-      <c r="L126" s="103"/>
-      <c r="M126" s="103"/>
-      <c r="N126" s="103"/>
-      <c r="O126" s="103"/>
-      <c r="P126" s="103"/>
-      <c r="Q126" s="104"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
+      <c r="H126" s="90"/>
+      <c r="I126" s="90"/>
+      <c r="J126" s="90"/>
+      <c r="K126" s="90"/>
+      <c r="L126" s="90"/>
+      <c r="M126" s="90"/>
+      <c r="N126" s="90"/>
+      <c r="O126" s="90"/>
+      <c r="P126" s="90"/>
+      <c r="Q126" s="91"/>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="51">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="114"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="105" t="s">
+      <c r="B127" s="104"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="105"/>
-      <c r="F127" s="105"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="89"/>
       <c r="G127" s="20" t="s">
         <v>512</v>
       </c>
@@ -13088,12 +13088,12 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="116" t="s">
+      <c r="B128" s="104"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E128" s="117"/>
+      <c r="E128" s="95"/>
       <c r="F128" s="88"/>
       <c r="G128" s="20" t="s">
         <v>527</v>
@@ -13114,37 +13114,37 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="114"/>
-      <c r="C129" s="103" t="s">
+      <c r="B129" s="104"/>
+      <c r="C129" s="90" t="s">
         <v>524</v>
       </c>
-      <c r="D129" s="103"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="103"/>
-      <c r="G129" s="103"/>
-      <c r="H129" s="103"/>
-      <c r="I129" s="103"/>
-      <c r="J129" s="103"/>
-      <c r="K129" s="103"/>
-      <c r="L129" s="103"/>
-      <c r="M129" s="103"/>
-      <c r="N129" s="103"/>
-      <c r="O129" s="103"/>
-      <c r="P129" s="103"/>
-      <c r="Q129" s="104"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="90"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="90"/>
+      <c r="J129" s="90"/>
+      <c r="K129" s="90"/>
+      <c r="L129" s="90"/>
+      <c r="M129" s="90"/>
+      <c r="N129" s="90"/>
+      <c r="O129" s="90"/>
+      <c r="P129" s="90"/>
+      <c r="Q129" s="91"/>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="51">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="114"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="105" t="s">
+      <c r="B130" s="104"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E130" s="105"/>
-      <c r="F130" s="105"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="89"/>
       <c r="G130" s="20" t="s">
         <v>512</v>
       </c>
@@ -13166,12 +13166,12 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="115"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="116" t="s">
+      <c r="B131" s="105"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E131" s="117"/>
+      <c r="E131" s="95"/>
       <c r="F131" s="88"/>
       <c r="G131" s="20" t="s">
         <v>527</v>
@@ -13189,6 +13189,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D102:D110"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D63:D72"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D39:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D17:D28"/>
+    <mergeCell ref="C117:Q117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:B131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="C7:C110"/>
+    <mergeCell ref="D74:D86"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C111:Q111"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="D73:Q73"/>
+    <mergeCell ref="D87:Q87"/>
+    <mergeCell ref="D90:Q90"/>
+    <mergeCell ref="D93:Q93"/>
+    <mergeCell ref="D95:Q95"/>
+    <mergeCell ref="D97:Q97"/>
+    <mergeCell ref="D101:Q101"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="D127:F127"/>
     <mergeCell ref="C129:Q129"/>
     <mergeCell ref="D130:F130"/>
@@ -13213,88 +13295,6 @@
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="C114:Q114"/>
     <mergeCell ref="D115:F115"/>
-    <mergeCell ref="C117:Q117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:B131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="C7:C110"/>
-    <mergeCell ref="D74:D86"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C111:Q111"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="D73:Q73"/>
-    <mergeCell ref="D87:Q87"/>
-    <mergeCell ref="D90:Q90"/>
-    <mergeCell ref="D93:Q93"/>
-    <mergeCell ref="D95:Q95"/>
-    <mergeCell ref="D97:Q97"/>
-    <mergeCell ref="D101:Q101"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D17:D28"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D63:D72"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D39:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D102:D110"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E86"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H63:H66 H82:H86 H68:H72 H96 H112:H113 H74:H75 H1:H2 H132:H1048576 H7:H59">
@@ -13466,10 +13466,10 @@
       <c r="B2" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="43" t="s">
         <v>363</v>
       </c>
@@ -13491,31 +13491,31 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="101" t="s">
         <v>515</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="50">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="99" t="s">
         <v>528</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="48" t="s">
         <v>531</v>
       </c>
@@ -13533,7 +13533,7 @@
         <f t="shared" ref="A5:A6" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="46" t="s">
         <v>146</v>
       </c>
@@ -13557,13 +13557,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="109" t="s">
+      <c r="B6" s="104"/>
+      <c r="C6" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="48" t="s">
         <v>511</v>
       </c>
@@ -13581,12 +13581,12 @@
         <f>ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="109" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="99" t="s">
         <v>510</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="131"/>
       <c r="G7" s="49" t="s">
         <v>512</v>
@@ -13605,7 +13605,7 @@
         <f>ROW()-2</f>
         <v>6</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="128" t="s">
         <v>508</v>
       </c>
@@ -13623,13 +13623,13 @@
         <f>ROW()-2</f>
         <v>7</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="96" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="97"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="19" t="s">
         <v>237</v>
       </c>
@@ -13647,13 +13647,13 @@
         <f>ROW()-2</f>
         <v>8</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="89" t="s">
+      <c r="B10" s="104"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="110" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="18" t="s">
         <v>128</v>
       </c>
@@ -13671,13 +13671,13 @@
         <f t="shared" ref="A11:A82" si="1">ROW()-2</f>
         <v>9</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="89" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="18" t="s">
         <v>97</v>
       </c>
@@ -13695,15 +13695,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="89" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="110" t="s">
         <v>385</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="18" t="s">
         <v>155</v>
       </c>
@@ -13719,13 +13719,13 @@
         <f>ROW()-2</f>
         <v>11</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89" t="s">
+      <c r="B13" s="104"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="18" t="s">
         <v>155</v>
       </c>
@@ -13741,13 +13741,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="89" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="110" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="18" t="s">
         <v>128</v>
       </c>
@@ -13765,13 +13765,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="89" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="19" t="s">
         <v>128</v>
       </c>
@@ -13789,13 +13789,13 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="89" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="19" t="s">
         <v>128</v>
       </c>
@@ -13813,13 +13813,13 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="89" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="110" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="19" t="s">
         <v>155</v>
       </c>
@@ -13839,13 +13839,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="89" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="19" t="s">
         <v>237</v>
       </c>
@@ -13861,15 +13861,15 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="89" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="110" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="19" t="s">
         <v>368</v>
       </c>
@@ -13887,13 +13887,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="19" t="s">
         <v>128</v>
       </c>
@@ -13913,13 +13913,13 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="F21" s="89"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="19" t="s">
         <v>155</v>
       </c>
@@ -13937,13 +13937,13 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="19" t="s">
         <v>155</v>
       </c>
@@ -13961,13 +13961,13 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110" t="s">
         <v>279</v>
       </c>
-      <c r="F23" s="89"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="19" t="s">
         <v>128</v>
       </c>
@@ -13985,10 +13985,10 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110" t="s">
         <v>321</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -14009,10 +14009,10 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="26" t="s">
         <v>322</v>
       </c>
@@ -14031,13 +14031,13 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110" t="s">
         <v>325</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="19" t="s">
         <v>155</v>
       </c>
@@ -14053,12 +14053,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="89" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="110" t="s">
         <v>328</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="110" t="s">
         <v>373</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -14081,10 +14081,10 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="26" t="s">
         <v>322</v>
       </c>
@@ -14105,10 +14105,10 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110" t="s">
         <v>374</v>
       </c>
       <c r="F29" s="26" t="s">
@@ -14131,10 +14131,10 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="114"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="26" t="s">
         <v>322</v>
       </c>
@@ -14155,15 +14155,15 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="114"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="106"/>
       <c r="D31" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="F31" s="89"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="19" t="s">
         <v>128</v>
       </c>
@@ -14179,15 +14179,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="89" t="s">
+      <c r="B32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="110" t="s">
         <v>331</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="19" t="s">
         <v>367</v>
       </c>
@@ -14201,13 +14201,13 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89" t="s">
+      <c r="B33" s="104"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="F33" s="89"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="19" t="s">
         <v>367</v>
       </c>
@@ -14221,13 +14221,13 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89" t="s">
+      <c r="B34" s="104"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="F34" s="89"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="19" t="s">
         <v>367</v>
       </c>
@@ -14241,13 +14241,13 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89" t="s">
+      <c r="B35" s="104"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="F35" s="89"/>
+      <c r="F35" s="110"/>
       <c r="G35" s="19" t="s">
         <v>367</v>
       </c>
@@ -14261,10 +14261,10 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110" t="s">
         <v>78</v>
       </c>
       <c r="F36" s="27"/>
@@ -14283,10 +14283,10 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
       <c r="F37" s="26" t="s">
         <v>339</v>
       </c>
@@ -14307,13 +14307,13 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89" t="s">
+      <c r="B38" s="104"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110" t="s">
         <v>302</v>
       </c>
-      <c r="F38" s="89"/>
+      <c r="F38" s="110"/>
       <c r="G38" s="19" t="s">
         <v>367</v>
       </c>
@@ -14327,10 +14327,10 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110" t="s">
         <v>338</v>
       </c>
       <c r="F39" s="27"/>
@@ -14349,10 +14349,10 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="26" t="s">
         <v>339</v>
       </c>
@@ -14371,12 +14371,12 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="114"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="89" t="s">
+      <c r="B41" s="104"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="110" t="s">
         <v>223</v>
       </c>
       <c r="F41" s="26" t="s">
@@ -14395,10 +14395,10 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="114"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="26" t="s">
         <v>348</v>
       </c>
@@ -14419,10 +14419,10 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="114"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
       <c r="F43" s="26" t="s">
         <v>18</v>
       </c>
@@ -14443,10 +14443,10 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89" t="s">
+      <c r="B44" s="104"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110" t="s">
         <v>333</v>
       </c>
       <c r="F44" s="26" t="s">
@@ -14465,10 +14465,10 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="114"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="26" t="s">
         <v>378</v>
       </c>
@@ -14489,10 +14489,10 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89" t="s">
+      <c r="B46" s="104"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110" t="s">
         <v>334</v>
       </c>
       <c r="F46" s="26" t="s">
@@ -14511,10 +14511,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
       <c r="F47" s="26" t="s">
         <v>378</v>
       </c>
@@ -14535,10 +14535,10 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="114"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110" t="s">
         <v>335</v>
       </c>
       <c r="F48" s="26" t="s">
@@ -14559,10 +14559,10 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="114"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
       <c r="F49" s="26" t="s">
         <v>379</v>
       </c>
@@ -14583,10 +14583,10 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
       <c r="F50" s="26" t="s">
         <v>378</v>
       </c>
@@ -14607,10 +14607,10 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="114"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="26" t="s">
         <v>387</v>
       </c>
@@ -14631,10 +14631,10 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
       <c r="F52" s="26" t="s">
         <v>388</v>
       </c>
@@ -14655,10 +14655,10 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="114"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="26" t="s">
         <v>389</v>
       </c>
@@ -14677,10 +14677,10 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="114"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="26" t="s">
         <v>390</v>
       </c>
@@ -14699,10 +14699,10 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="114"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89" t="s">
+      <c r="B55" s="104"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110" t="s">
         <v>302</v>
       </c>
       <c r="F55" s="26" t="s">
@@ -14721,10 +14721,10 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
       <c r="F56" s="26" t="s">
         <v>378</v>
       </c>
@@ -14743,12 +14743,12 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="118"/>
-      <c r="D57" s="89" t="s">
+      <c r="B57" s="104"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="110" t="s">
         <v>399</v>
       </c>
-      <c r="E57" s="89" t="s">
+      <c r="E57" s="110" t="s">
         <v>414</v>
       </c>
       <c r="F57" s="26" t="s">
@@ -14771,10 +14771,10 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="26" t="s">
         <v>388</v>
       </c>
@@ -14795,10 +14795,10 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89" t="s">
+      <c r="B59" s="104"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110" t="s">
         <v>397</v>
       </c>
       <c r="F59" s="27"/>
@@ -14817,10 +14817,10 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
       <c r="F60" s="26" t="s">
         <v>409</v>
       </c>
@@ -14841,10 +14841,10 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110"/>
       <c r="F61" s="26" t="s">
         <v>410</v>
       </c>
@@ -14865,10 +14865,10 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="114"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
       <c r="F62" s="26" t="s">
         <v>413</v>
       </c>
@@ -14891,15 +14891,15 @@
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="114"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="89" t="s">
+      <c r="B63" s="104"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="E63" s="89" t="s">
+      <c r="E63" s="110" t="s">
         <v>401</v>
       </c>
-      <c r="F63" s="89"/>
+      <c r="F63" s="110"/>
       <c r="G63" s="19" t="s">
         <v>383</v>
       </c>
@@ -14917,10 +14917,10 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89" t="s">
+      <c r="B64" s="104"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="110"/>
+      <c r="E64" s="110" t="s">
         <v>403</v>
       </c>
       <c r="F64" s="26" t="s">
@@ -14943,10 +14943,10 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
       <c r="F65" s="26" t="s">
         <v>405</v>
       </c>
@@ -14967,10 +14967,10 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="114"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89" t="s">
+      <c r="B66" s="104"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110" t="s">
         <v>408</v>
       </c>
       <c r="F66" s="26" t="s">
@@ -14993,10 +14993,10 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
       <c r="F67" s="26" t="s">
         <v>405</v>
       </c>
@@ -15017,9 +15017,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B68" s="114"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="89"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="110"/>
       <c r="E68" s="26" t="s">
         <v>464</v>
       </c>
@@ -15037,12 +15037,12 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="114"/>
-      <c r="C69" s="118"/>
-      <c r="D69" s="89" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="E69" s="89" t="s">
+      <c r="E69" s="110" t="s">
         <v>417</v>
       </c>
       <c r="F69" s="26" t="s">
@@ -15065,10 +15065,10 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
       <c r="F70" s="26" t="s">
         <v>285</v>
       </c>
@@ -15091,10 +15091,10 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="114"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
       <c r="F71" s="26" t="s">
         <v>281</v>
       </c>
@@ -15117,10 +15117,10 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="114"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="110"/>
+      <c r="E72" s="110"/>
       <c r="F72" s="26" t="s">
         <v>286</v>
       </c>
@@ -15141,10 +15141,10 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="114"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
       <c r="F73" s="26" t="s">
         <v>434</v>
       </c>
@@ -15165,10 +15165,10 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="114"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
       <c r="F74" s="26" t="s">
         <v>287</v>
       </c>
@@ -15189,10 +15189,10 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="114"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
       <c r="F75" s="26" t="s">
         <v>435</v>
       </c>
@@ -15213,10 +15213,10 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="114"/>
-      <c r="C76" s="118"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="110"/>
       <c r="F76" s="26" t="s">
         <v>426</v>
       </c>
@@ -15239,10 +15239,10 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="114"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89" t="s">
+      <c r="B77" s="104"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110" t="s">
         <v>112</v>
       </c>
       <c r="F77" s="26" t="s">
@@ -15267,10 +15267,10 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
       <c r="F78" s="26" t="s">
         <v>429</v>
       </c>
@@ -15293,28 +15293,28 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="122" t="s">
+      <c r="B79" s="104"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="111" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="123"/>
-      <c r="F79" s="123"/>
-      <c r="G79" s="123"/>
-      <c r="H79" s="123"/>
-      <c r="I79" s="123"/>
-      <c r="J79" s="123"/>
-      <c r="K79" s="124"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
+      <c r="G79" s="112"/>
+      <c r="H79" s="112"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="113"/>
     </row>
     <row r="80" spans="1:11" ht="40.5">
       <c r="A80" s="51">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="114"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="90" t="s">
+      <c r="B80" s="104"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="121" t="s">
         <v>479</v>
       </c>
       <c r="F80" s="41"/>
@@ -15335,10 +15335,10 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81" s="114"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="91"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="29" t="s">
         <v>481</v>
       </c>
@@ -15357,10 +15357,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82" s="114"/>
-      <c r="C82" s="118"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="89" t="s">
+      <c r="B82" s="104"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F82" s="26" t="s">
@@ -15381,10 +15381,10 @@
         <f t="shared" ref="A83:A88" si="2">ROW()-2</f>
         <v>81</v>
       </c>
-      <c r="B83" s="114"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="89"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="110"/>
       <c r="F83" s="26" t="s">
         <v>348</v>
       </c>
@@ -15407,10 +15407,10 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="114"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="89"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="110"/>
       <c r="F84" s="26" t="s">
         <v>18</v>
       </c>
@@ -15433,10 +15433,10 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="89" t="s">
+      <c r="B85" s="104"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="110" t="s">
         <v>310</v>
       </c>
       <c r="F85" s="26" t="s">
@@ -15459,10 +15459,10 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="114"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="89"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="110"/>
       <c r="F86" s="26" t="s">
         <v>452</v>
       </c>
@@ -15483,10 +15483,10 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="89"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="110"/>
       <c r="F87" s="26" t="s">
         <v>409</v>
       </c>
@@ -15507,10 +15507,10 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="89" t="s">
+      <c r="B88" s="104"/>
+      <c r="C88" s="106"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="110" t="s">
         <v>450</v>
       </c>
       <c r="F88" s="26"/>
@@ -15529,10 +15529,10 @@
         <f t="shared" ref="A89:A137" si="3">ROW()-2</f>
         <v>87</v>
       </c>
-      <c r="B89" s="114"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="120"/>
-      <c r="E89" s="89"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="106"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="110"/>
       <c r="F89" s="26" t="s">
         <v>410</v>
       </c>
@@ -15553,10 +15553,10 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="120"/>
-      <c r="E90" s="89"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="106"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="110"/>
       <c r="F90" s="26" t="s">
         <v>413</v>
       </c>
@@ -15579,10 +15579,10 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="98" t="s">
+      <c r="B91" s="104"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="127" t="s">
         <v>461</v>
       </c>
       <c r="F91" s="26" t="s">
@@ -15607,10 +15607,10 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="B92" s="114"/>
-      <c r="C92" s="118"/>
-      <c r="D92" s="121"/>
-      <c r="E92" s="98"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="127"/>
       <c r="F92" s="26" t="s">
         <v>375</v>
       </c>
@@ -15627,28 +15627,28 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="118"/>
-      <c r="D93" s="122" t="s">
+      <c r="B93" s="104"/>
+      <c r="C93" s="106"/>
+      <c r="D93" s="111" t="s">
         <v>504</v>
       </c>
-      <c r="E93" s="123"/>
-      <c r="F93" s="123"/>
-      <c r="G93" s="123"/>
-      <c r="H93" s="123"/>
-      <c r="I93" s="123"/>
-      <c r="J93" s="123"/>
-      <c r="K93" s="124"/>
+      <c r="E93" s="112"/>
+      <c r="F93" s="112"/>
+      <c r="G93" s="112"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="113"/>
     </row>
     <row r="94" spans="1:11" ht="27">
       <c r="A94" s="51">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="B94" s="114"/>
-      <c r="C94" s="118"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="89" t="s">
+      <c r="B94" s="104"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F94" s="26" t="s">
@@ -15669,10 +15669,10 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="B95" s="114"/>
-      <c r="C95" s="118"/>
-      <c r="D95" s="121"/>
-      <c r="E95" s="89"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="106"/>
+      <c r="D95" s="109"/>
+      <c r="E95" s="110"/>
       <c r="F95" s="26" t="s">
         <v>348</v>
       </c>
@@ -15695,28 +15695,28 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="118"/>
-      <c r="D96" s="122" t="s">
+      <c r="B96" s="104"/>
+      <c r="C96" s="106"/>
+      <c r="D96" s="111" t="s">
         <v>505</v>
       </c>
-      <c r="E96" s="123"/>
-      <c r="F96" s="123"/>
-      <c r="G96" s="123"/>
-      <c r="H96" s="123"/>
-      <c r="I96" s="123"/>
-      <c r="J96" s="123"/>
-      <c r="K96" s="124"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="112"/>
+      <c r="G96" s="112"/>
+      <c r="H96" s="112"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="112"/>
+      <c r="K96" s="113"/>
     </row>
     <row r="97" spans="1:11" ht="27">
       <c r="A97" s="51">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="B97" s="114"/>
-      <c r="C97" s="118"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="89" t="s">
+      <c r="B97" s="104"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="110" t="s">
         <v>346</v>
       </c>
       <c r="F97" s="26" t="s">
@@ -15737,10 +15737,10 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="118"/>
-      <c r="D98" s="93"/>
-      <c r="E98" s="89"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="106"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="110"/>
       <c r="F98" s="26" t="s">
         <v>348</v>
       </c>
@@ -15763,26 +15763,26 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="B99" s="114"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="122" t="s">
+      <c r="B99" s="104"/>
+      <c r="C99" s="106"/>
+      <c r="D99" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
-      <c r="G99" s="123"/>
-      <c r="H99" s="123"/>
-      <c r="I99" s="123"/>
-      <c r="J99" s="123"/>
-      <c r="K99" s="124"/>
+      <c r="E99" s="112"/>
+      <c r="F99" s="112"/>
+      <c r="G99" s="112"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="112"/>
+      <c r="K99" s="113"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="51">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="B100" s="114"/>
-      <c r="C100" s="118"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="106"/>
       <c r="D100" s="42"/>
       <c r="E100" s="26" t="s">
         <v>346</v>
@@ -15805,26 +15805,26 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="B101" s="114"/>
-      <c r="C101" s="118"/>
-      <c r="D101" s="122" t="s">
+      <c r="B101" s="104"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
-      <c r="J101" s="123"/>
-      <c r="K101" s="124"/>
+      <c r="E101" s="112"/>
+      <c r="F101" s="112"/>
+      <c r="G101" s="112"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="112"/>
+      <c r="K101" s="113"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="51">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B102" s="114"/>
-      <c r="C102" s="118"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="106"/>
       <c r="D102" s="42"/>
       <c r="E102" s="26" t="s">
         <v>331</v>
@@ -15849,28 +15849,28 @@
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="B103" s="114"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="122" t="s">
+      <c r="B103" s="104"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="111" t="s">
         <v>506</v>
       </c>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
-      <c r="G103" s="123"/>
-      <c r="H103" s="123"/>
-      <c r="I103" s="123"/>
-      <c r="J103" s="123"/>
-      <c r="K103" s="124"/>
+      <c r="E103" s="112"/>
+      <c r="F103" s="112"/>
+      <c r="G103" s="112"/>
+      <c r="H103" s="112"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="112"/>
+      <c r="K103" s="113"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="51">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="B104" s="114"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="89" t="s">
+      <c r="B104" s="104"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="110" t="s">
         <v>417</v>
       </c>
       <c r="F104" s="26" t="s">
@@ -15891,10 +15891,10 @@
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="B105" s="114"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="89"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="106"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="110"/>
       <c r="F105" s="28" t="s">
         <v>473</v>
       </c>
@@ -15913,9 +15913,9 @@
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="B106" s="114"/>
-      <c r="C106" s="118"/>
-      <c r="D106" s="93"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="124"/>
       <c r="E106" s="26" t="s">
         <v>474</v>
       </c>
@@ -15937,31 +15937,31 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="B107" s="114"/>
-      <c r="C107" s="118"/>
-      <c r="D107" s="122" t="s">
+      <c r="B107" s="104"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="E107" s="123"/>
-      <c r="F107" s="123"/>
-      <c r="G107" s="123"/>
-      <c r="H107" s="123"/>
-      <c r="I107" s="123"/>
-      <c r="J107" s="123"/>
-      <c r="K107" s="124"/>
+      <c r="E107" s="112"/>
+      <c r="F107" s="112"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="113"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="51">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="B108" s="114"/>
-      <c r="C108" s="118"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="89" t="s">
+      <c r="B108" s="104"/>
+      <c r="C108" s="106"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="F108" s="89"/>
+      <c r="F108" s="110"/>
       <c r="G108" s="19" t="s">
         <v>128</v>
       </c>
@@ -15977,13 +15977,13 @@
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="B109" s="114"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="89" t="s">
+      <c r="B109" s="104"/>
+      <c r="C109" s="106"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="F109" s="89"/>
+      <c r="F109" s="110"/>
       <c r="G109" s="19" t="s">
         <v>128</v>
       </c>
@@ -15999,13 +15999,13 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="B110" s="114"/>
-      <c r="C110" s="118"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="89" t="s">
+      <c r="B110" s="104"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="110" t="s">
         <v>468</v>
       </c>
-      <c r="F110" s="89"/>
+      <c r="F110" s="110"/>
       <c r="G110" s="19" t="s">
         <v>237</v>
       </c>
@@ -16019,13 +16019,13 @@
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="B111" s="114"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="89" t="s">
+      <c r="B111" s="104"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="F111" s="89"/>
+      <c r="F111" s="110"/>
       <c r="G111" s="19" t="s">
         <v>237</v>
       </c>
@@ -16039,13 +16039,13 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="B112" s="114"/>
-      <c r="C112" s="118"/>
-      <c r="D112" s="95"/>
-      <c r="E112" s="89" t="s">
+      <c r="B112" s="104"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="126"/>
+      <c r="E112" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="F112" s="89"/>
+      <c r="F112" s="110"/>
       <c r="G112" s="19" t="s">
         <v>237</v>
       </c>
@@ -16059,13 +16059,13 @@
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="B113" s="114"/>
-      <c r="C113" s="118"/>
-      <c r="D113" s="95"/>
-      <c r="E113" s="89" t="s">
+      <c r="B113" s="104"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="126"/>
+      <c r="E113" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="F113" s="89"/>
+      <c r="F113" s="110"/>
       <c r="G113" s="19" t="s">
         <v>237</v>
       </c>
@@ -16079,13 +16079,13 @@
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="B114" s="114"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="95"/>
-      <c r="E114" s="96" t="s">
+      <c r="B114" s="104"/>
+      <c r="C114" s="106"/>
+      <c r="D114" s="126"/>
+      <c r="E114" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="F114" s="97"/>
+      <c r="F114" s="116"/>
       <c r="G114" s="19" t="s">
         <v>128</v>
       </c>
@@ -16101,10 +16101,10 @@
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="B115" s="114"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="95"/>
-      <c r="E115" s="89" t="s">
+      <c r="B115" s="104"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="126"/>
+      <c r="E115" s="110" t="s">
         <v>400</v>
       </c>
       <c r="F115" s="26" t="s">
@@ -16127,10 +16127,10 @@
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="B116" s="114"/>
-      <c r="C116" s="119"/>
-      <c r="D116" s="95"/>
-      <c r="E116" s="89"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="107"/>
+      <c r="D116" s="126"/>
+      <c r="E116" s="110"/>
       <c r="F116" s="26" t="s">
         <v>71</v>
       </c>
@@ -16149,17 +16149,17 @@
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="B117" s="114"/>
-      <c r="C117" s="103" t="s">
+      <c r="B117" s="104"/>
+      <c r="C117" s="90" t="s">
         <v>519</v>
       </c>
-      <c r="D117" s="103"/>
-      <c r="E117" s="103"/>
-      <c r="F117" s="103"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="103"/>
+      <c r="D117" s="90"/>
+      <c r="E117" s="90"/>
+      <c r="F117" s="90"/>
+      <c r="G117" s="90"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="90"/>
+      <c r="J117" s="90"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11">
@@ -16167,13 +16167,13 @@
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="B118" s="114"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="105" t="s">
+      <c r="B118" s="104"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="89"/>
       <c r="G118" s="20" t="s">
         <v>512</v>
       </c>
@@ -16189,12 +16189,12 @@
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="B119" s="114"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="116" t="s">
+      <c r="B119" s="104"/>
+      <c r="C119" s="93"/>
+      <c r="D119" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E119" s="117"/>
+      <c r="E119" s="95"/>
       <c r="F119" s="88"/>
       <c r="G119" s="20" t="s">
         <v>527</v>
@@ -16209,17 +16209,17 @@
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="B120" s="114"/>
-      <c r="C120" s="103" t="s">
+      <c r="B120" s="104"/>
+      <c r="C120" s="90" t="s">
         <v>518</v>
       </c>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="103"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
+      <c r="D120" s="90"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="90"/>
+      <c r="G120" s="90"/>
+      <c r="H120" s="90"/>
+      <c r="I120" s="90"/>
+      <c r="J120" s="90"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11">
@@ -16227,13 +16227,13 @@
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="B121" s="114"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="105" t="s">
+      <c r="B121" s="104"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="20" t="s">
         <v>512</v>
       </c>
@@ -16249,12 +16249,12 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="B122" s="114"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="116" t="s">
+      <c r="B122" s="104"/>
+      <c r="C122" s="93"/>
+      <c r="D122" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E122" s="117"/>
+      <c r="E122" s="95"/>
       <c r="F122" s="88"/>
       <c r="G122" s="20"/>
       <c r="H122" s="38"/>
@@ -16267,17 +16267,17 @@
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="B123" s="114"/>
-      <c r="C123" s="103" t="s">
+      <c r="B123" s="104"/>
+      <c r="C123" s="90" t="s">
         <v>520</v>
       </c>
-      <c r="D123" s="103"/>
-      <c r="E123" s="103"/>
-      <c r="F123" s="103"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="103"/>
+      <c r="D123" s="90"/>
+      <c r="E123" s="90"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="90"/>
+      <c r="H123" s="90"/>
+      <c r="I123" s="90"/>
+      <c r="J123" s="90"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11">
@@ -16285,13 +16285,13 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="B124" s="114"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="105" t="s">
+      <c r="B124" s="104"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
       <c r="G124" s="20" t="s">
         <v>525</v>
       </c>
@@ -16307,12 +16307,12 @@
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="B125" s="114"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="116" t="s">
+      <c r="B125" s="104"/>
+      <c r="C125" s="93"/>
+      <c r="D125" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E125" s="117"/>
+      <c r="E125" s="95"/>
       <c r="F125" s="88"/>
       <c r="G125" s="20" t="s">
         <v>527</v>
@@ -16327,17 +16327,17 @@
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="B126" s="114"/>
-      <c r="C126" s="103" t="s">
+      <c r="B126" s="104"/>
+      <c r="C126" s="90" t="s">
         <v>521</v>
       </c>
-      <c r="D126" s="103"/>
-      <c r="E126" s="103"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="103"/>
+      <c r="D126" s="90"/>
+      <c r="E126" s="90"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="90"/>
+      <c r="H126" s="90"/>
+      <c r="I126" s="90"/>
+      <c r="J126" s="90"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11">
@@ -16345,13 +16345,13 @@
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="B127" s="114"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="105" t="s">
+      <c r="B127" s="104"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="105"/>
-      <c r="F127" s="105"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="89"/>
       <c r="G127" s="20" t="s">
         <v>512</v>
       </c>
@@ -16367,12 +16367,12 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="B128" s="114"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="116" t="s">
+      <c r="B128" s="104"/>
+      <c r="C128" s="93"/>
+      <c r="D128" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E128" s="117"/>
+      <c r="E128" s="95"/>
       <c r="F128" s="88"/>
       <c r="G128" s="20" t="s">
         <v>527</v>
@@ -16387,17 +16387,17 @@
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="B129" s="114"/>
-      <c r="C129" s="103" t="s">
+      <c r="B129" s="104"/>
+      <c r="C129" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="D129" s="103"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="103"/>
-      <c r="G129" s="103"/>
-      <c r="H129" s="103"/>
-      <c r="I129" s="103"/>
-      <c r="J129" s="103"/>
+      <c r="D129" s="90"/>
+      <c r="E129" s="90"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="90"/>
+      <c r="I129" s="90"/>
+      <c r="J129" s="90"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11">
@@ -16405,13 +16405,13 @@
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="B130" s="114"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="105" t="s">
+      <c r="B130" s="104"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E130" s="105"/>
-      <c r="F130" s="105"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="89"/>
       <c r="G130" s="20" t="s">
         <v>512</v>
       </c>
@@ -16427,12 +16427,12 @@
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="B131" s="114"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="116" t="s">
+      <c r="B131" s="104"/>
+      <c r="C131" s="93"/>
+      <c r="D131" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E131" s="117"/>
+      <c r="E131" s="95"/>
       <c r="F131" s="88"/>
       <c r="G131" s="20" t="s">
         <v>527</v>
@@ -16447,17 +16447,17 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="B132" s="114"/>
-      <c r="C132" s="103" t="s">
+      <c r="B132" s="104"/>
+      <c r="C132" s="90" t="s">
         <v>523</v>
       </c>
-      <c r="D132" s="103"/>
-      <c r="E132" s="103"/>
-      <c r="F132" s="103"/>
-      <c r="G132" s="103"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="103"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="90"/>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
+      <c r="J132" s="90"/>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11">
@@ -16465,13 +16465,13 @@
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="B133" s="114"/>
-      <c r="C133" s="126"/>
-      <c r="D133" s="105" t="s">
+      <c r="B133" s="104"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E133" s="105"/>
-      <c r="F133" s="105"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="89"/>
       <c r="G133" s="20" t="s">
         <v>512</v>
       </c>
@@ -16487,12 +16487,12 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="B134" s="114"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="116" t="s">
+      <c r="B134" s="104"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E134" s="117"/>
+      <c r="E134" s="95"/>
       <c r="F134" s="88"/>
       <c r="G134" s="20" t="s">
         <v>527</v>
@@ -16507,17 +16507,17 @@
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="B135" s="114"/>
-      <c r="C135" s="103" t="s">
+      <c r="B135" s="104"/>
+      <c r="C135" s="90" t="s">
         <v>524</v>
       </c>
-      <c r="D135" s="103"/>
-      <c r="E135" s="103"/>
-      <c r="F135" s="103"/>
-      <c r="G135" s="103"/>
-      <c r="H135" s="103"/>
-      <c r="I135" s="103"/>
-      <c r="J135" s="103"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="90"/>
+      <c r="G135" s="90"/>
+      <c r="H135" s="90"/>
+      <c r="I135" s="90"/>
+      <c r="J135" s="90"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11">
@@ -16525,13 +16525,13 @@
         <f t="shared" si="3"/>
         <v>134</v>
       </c>
-      <c r="B136" s="114"/>
-      <c r="C136" s="126"/>
-      <c r="D136" s="105" t="s">
+      <c r="B136" s="104"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="89" t="s">
         <v>516</v>
       </c>
-      <c r="E136" s="105"/>
-      <c r="F136" s="105"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
       <c r="G136" s="20" t="s">
         <v>512</v>
       </c>
@@ -16547,12 +16547,12 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="B137" s="115"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="116" t="s">
+      <c r="B137" s="105"/>
+      <c r="C137" s="93"/>
+      <c r="D137" s="94" t="s">
         <v>526</v>
       </c>
-      <c r="E137" s="117"/>
+      <c r="E137" s="95"/>
       <c r="F137" s="88"/>
       <c r="G137" s="20" t="s">
         <v>527</v>
@@ -16564,6 +16564,93 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:B137"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C9:C116"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D56"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="D80:D92"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="D108:D116"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="D79:K79"/>
@@ -16588,93 +16675,6 @@
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="C123:J123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D108:D116"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="D69:D78"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="D80:D92"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D56"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:B137"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C9:C116"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H69:H72 H88:H92 H74:H78 H102 H118:H119 H80:H81 H1:H2 H9:H65 H138:H1048576">
@@ -17297,10 +17297,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="58" t="s">
         <v>71</v>
       </c>
@@ -19188,8 +19188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
